--- a/puttogether.xlsx
+++ b/puttogether.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Library/Mobile Documents/com~apple~CloudDocs/STREAM/Oncologist predictions /csvs/codes/readings /masters/actualextraction/finaldata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E03175-7ED4-3B49-A68F-DA5DA91CD7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588D9B5-5A33-4E4C-B173-B1837DC7BAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="920" windowWidth="28800" windowHeight="16520" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="-4360" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="R3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">puttogether!$A$1:$BA$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">puttogether!$A$1:$BB$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'R3'!$A$1:$AP$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7602" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7603" uniqueCount="1043">
   <si>
     <t>referenceid</t>
   </si>
@@ -3421,6 +3421,9 @@
   </si>
   <si>
     <t>Albumin-NCT00818662 combo first</t>
+  </si>
+  <si>
+    <t>preceededambi</t>
   </si>
 </sst>
 </file>
@@ -3693,7 +3696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3833,6 +3836,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4147,27 +4153,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-  <dimension ref="A1:BA144"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BB144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AX10" sqref="AX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="32"/>
-    <col min="3" max="3" width="10.83203125" style="49"/>
+    <col min="3" max="3" width="16.5" style="49" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="32"/>
     <col min="5" max="5" width="17.1640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="32" customWidth="1"/>
     <col min="7" max="32" width="10.83203125" style="32"/>
     <col min="33" max="33" width="33.6640625" style="32" customWidth="1"/>
     <col min="34" max="45" width="10.83203125" style="32"/>
-    <col min="46" max="48" width="10.83203125" style="43"/>
-    <col min="49" max="16384" width="10.83203125" style="32"/>
+    <col min="46" max="49" width="10.83203125" style="43"/>
+    <col min="50" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4310,23 +4317,26 @@
       <c r="AV1" s="41" t="s">
         <v>1006</v>
       </c>
-      <c r="AW1" s="37" t="s">
+      <c r="AW1" s="53" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AX1" s="37" t="s">
         <v>1007</v>
       </c>
-      <c r="AX1" s="38" t="s">
+      <c r="AY1" s="38" t="s">
         <v>972</v>
       </c>
-      <c r="AY1" s="38" t="s">
+      <c r="AZ1" s="38" t="s">
         <v>1008</v>
-      </c>
-      <c r="AZ1" s="38" t="s">
-        <v>1003</v>
       </c>
       <c r="BA1" s="38" t="s">
         <v>1003</v>
       </c>
+      <c r="BB1" s="38" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4455,12 +4465,13 @@
         <v>1</v>
       </c>
       <c r="AV2" s="35"/>
-      <c r="AW2"/>
+      <c r="AW2" s="35"/>
       <c r="AX2"/>
       <c r="AY2"/>
       <c r="AZ2"/>
+      <c r="BA2"/>
     </row>
-    <row r="3" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4593,14 +4604,15 @@
       </c>
       <c r="AU3" s="35"/>
       <c r="AV3" s="35"/>
-      <c r="AW3"/>
+      <c r="AW3" s="35"/>
       <c r="AX3"/>
-      <c r="AY3" t="s">
+      <c r="AY3"/>
+      <c r="AZ3" t="s">
         <v>1009</v>
       </c>
-      <c r="AZ3"/>
+      <c r="BA3"/>
     </row>
-    <row r="4" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4733,14 +4745,15 @@
       </c>
       <c r="AU4" s="35"/>
       <c r="AV4" s="35"/>
-      <c r="AW4"/>
+      <c r="AW4" s="35"/>
       <c r="AX4"/>
-      <c r="AY4" t="s">
+      <c r="AY4"/>
+      <c r="AZ4" t="s">
         <v>1010</v>
       </c>
-      <c r="AZ4"/>
+      <c r="BA4"/>
     </row>
-    <row r="5" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4871,14 +4884,15 @@
       <c r="AV5" s="35" t="s">
         <v>707</v>
       </c>
-      <c r="AW5"/>
+      <c r="AW5" s="35"/>
       <c r="AX5"/>
       <c r="AY5"/>
-      <c r="AZ5">
+      <c r="AZ5"/>
+      <c r="BA5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5001,14 +5015,15 @@
       <c r="AV6" s="35" t="s">
         <v>707</v>
       </c>
-      <c r="AW6"/>
+      <c r="AW6" s="35"/>
       <c r="AX6"/>
       <c r="AY6"/>
-      <c r="AZ6">
+      <c r="AZ6"/>
+      <c r="BA6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -5137,12 +5152,13 @@
         <v>1</v>
       </c>
       <c r="AV7" s="35"/>
-      <c r="AW7"/>
+      <c r="AW7" s="35"/>
       <c r="AX7"/>
       <c r="AY7"/>
       <c r="AZ7"/>
+      <c r="BA7"/>
     </row>
-    <row r="8" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -5271,12 +5287,13 @@
         <v>1</v>
       </c>
       <c r="AV8" s="35"/>
-      <c r="AW8"/>
+      <c r="AW8" s="35"/>
       <c r="AX8"/>
       <c r="AY8"/>
       <c r="AZ8"/>
+      <c r="BA8"/>
     </row>
-    <row r="9" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -5405,12 +5422,13 @@
       <c r="AV9" s="35">
         <v>1</v>
       </c>
-      <c r="AW9"/>
+      <c r="AW9" s="35"/>
       <c r="AX9"/>
       <c r="AY9"/>
       <c r="AZ9"/>
+      <c r="BA9"/>
     </row>
-    <row r="10" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -5539,12 +5557,13 @@
         <v>1</v>
       </c>
       <c r="AV10" s="35"/>
-      <c r="AW10"/>
+      <c r="AW10" s="35"/>
       <c r="AX10"/>
       <c r="AY10"/>
       <c r="AZ10"/>
+      <c r="BA10"/>
     </row>
-    <row r="11" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5657,12 +5676,13 @@
         <v>1</v>
       </c>
       <c r="AV11" s="35"/>
-      <c r="AW11"/>
+      <c r="AW11" s="35"/>
       <c r="AX11"/>
       <c r="AY11"/>
       <c r="AZ11"/>
+      <c r="BA11"/>
     </row>
-    <row r="12" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -5793,12 +5813,13 @@
       <c r="AV12" s="35">
         <v>1</v>
       </c>
-      <c r="AW12"/>
+      <c r="AW12" s="35"/>
       <c r="AX12"/>
       <c r="AY12"/>
       <c r="AZ12"/>
+      <c r="BA12"/>
     </row>
-    <row r="13" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -5927,14 +5948,15 @@
       </c>
       <c r="AU13" s="35"/>
       <c r="AV13" s="35"/>
-      <c r="AW13"/>
+      <c r="AW13" s="35"/>
       <c r="AX13"/>
-      <c r="AY13" t="s">
+      <c r="AY13"/>
+      <c r="AZ13" t="s">
         <v>1011</v>
       </c>
-      <c r="AZ13"/>
+      <c r="BA13"/>
     </row>
-    <row r="14" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6063,14 +6085,15 @@
       </c>
       <c r="AU14" s="35"/>
       <c r="AV14" s="35"/>
-      <c r="AW14"/>
+      <c r="AW14" s="35"/>
       <c r="AX14"/>
-      <c r="AY14" t="s">
+      <c r="AY14"/>
+      <c r="AZ14" t="s">
         <v>1009</v>
       </c>
-      <c r="AZ14"/>
+      <c r="BA14"/>
     </row>
-    <row r="15" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6201,12 +6224,13 @@
       <c r="AV15" s="35">
         <v>1</v>
       </c>
-      <c r="AW15"/>
+      <c r="AW15" s="35"/>
       <c r="AX15"/>
       <c r="AY15"/>
       <c r="AZ15"/>
+      <c r="BA15"/>
     </row>
-    <row r="16" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6337,12 +6361,13 @@
       <c r="AV16" s="35">
         <v>1</v>
       </c>
-      <c r="AW16"/>
+      <c r="AW16" s="35"/>
       <c r="AX16"/>
       <c r="AY16"/>
       <c r="AZ16"/>
+      <c r="BA16"/>
     </row>
-    <row r="17" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -6473,12 +6498,13 @@
       <c r="AV17" s="35">
         <v>1</v>
       </c>
-      <c r="AW17"/>
+      <c r="AW17" s="35"/>
       <c r="AX17"/>
       <c r="AY17"/>
       <c r="AZ17"/>
+      <c r="BA17"/>
     </row>
-    <row r="18" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -6613,12 +6639,13 @@
       <c r="AV18" s="42" t="s">
         <v>1013</v>
       </c>
-      <c r="AW18"/>
+      <c r="AW18" s="42"/>
       <c r="AX18"/>
       <c r="AY18"/>
       <c r="AZ18"/>
+      <c r="BA18"/>
     </row>
-    <row r="19" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -6747,14 +6774,15 @@
       </c>
       <c r="AU19" s="35"/>
       <c r="AV19" s="35"/>
-      <c r="AW19"/>
+      <c r="AW19" s="35"/>
       <c r="AX19"/>
-      <c r="AY19" t="s">
+      <c r="AY19"/>
+      <c r="AZ19" t="s">
         <v>1014</v>
       </c>
-      <c r="AZ19"/>
+      <c r="BA19"/>
     </row>
-    <row r="20" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -6889,12 +6917,13 @@
       <c r="AV20" s="35" t="s">
         <v>1013</v>
       </c>
-      <c r="AW20"/>
+      <c r="AW20" s="35"/>
       <c r="AX20"/>
       <c r="AY20"/>
       <c r="AZ20"/>
+      <c r="BA20"/>
     </row>
-    <row r="21" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -7029,14 +7058,15 @@
       <c r="AV21" s="42" t="s">
         <v>1012</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AW21" s="42"/>
+      <c r="AX21" t="s">
         <v>1015</v>
       </c>
-      <c r="AX21"/>
       <c r="AY21"/>
       <c r="AZ21"/>
+      <c r="BA21"/>
     </row>
-    <row r="22" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -7167,14 +7197,15 @@
       </c>
       <c r="AU22" s="35"/>
       <c r="AV22" s="35"/>
-      <c r="AW22"/>
+      <c r="AW22" s="35"/>
       <c r="AX22"/>
-      <c r="AY22" t="s">
+      <c r="AY22"/>
+      <c r="AZ22" t="s">
         <v>1016</v>
       </c>
-      <c r="AZ22"/>
+      <c r="BA22"/>
     </row>
-    <row r="23" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -7303,12 +7334,13 @@
       <c r="AV23" s="35">
         <v>1</v>
       </c>
-      <c r="AW23"/>
+      <c r="AW23" s="35"/>
       <c r="AX23"/>
       <c r="AY23"/>
       <c r="AZ23"/>
+      <c r="BA23"/>
     </row>
-    <row r="24" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -7425,12 +7457,13 @@
         <v>1</v>
       </c>
       <c r="AV24" s="35"/>
-      <c r="AW24"/>
+      <c r="AW24" s="35"/>
       <c r="AX24"/>
       <c r="AY24"/>
       <c r="AZ24"/>
+      <c r="BA24"/>
     </row>
-    <row r="25" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -7561,14 +7594,15 @@
       </c>
       <c r="AU25" s="35"/>
       <c r="AV25" s="35"/>
-      <c r="AW25"/>
+      <c r="AW25" s="35"/>
       <c r="AX25"/>
-      <c r="AY25" t="s">
+      <c r="AY25"/>
+      <c r="AZ25" t="s">
         <v>1010</v>
       </c>
-      <c r="AZ25"/>
+      <c r="BA25"/>
     </row>
-    <row r="26" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -7701,14 +7735,15 @@
       </c>
       <c r="AU26" s="35"/>
       <c r="AV26" s="35"/>
-      <c r="AW26"/>
+      <c r="AW26" s="35"/>
       <c r="AX26"/>
-      <c r="AY26" t="s">
+      <c r="AY26"/>
+      <c r="AZ26" t="s">
         <v>1017</v>
       </c>
-      <c r="AZ26"/>
+      <c r="BA26"/>
     </row>
-    <row r="27" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -7839,14 +7874,15 @@
       </c>
       <c r="AU27" s="35"/>
       <c r="AV27" s="35"/>
-      <c r="AW27"/>
+      <c r="AW27" s="35"/>
       <c r="AX27"/>
-      <c r="AY27" t="s">
+      <c r="AY27"/>
+      <c r="AZ27" t="s">
         <v>1018</v>
       </c>
-      <c r="AZ27"/>
+      <c r="BA27"/>
     </row>
-    <row r="28" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -7977,14 +8013,15 @@
       </c>
       <c r="AU28" s="35"/>
       <c r="AV28" s="35"/>
-      <c r="AW28"/>
+      <c r="AW28" s="35"/>
       <c r="AX28"/>
-      <c r="AY28" t="s">
+      <c r="AY28"/>
+      <c r="AZ28" t="s">
         <v>1018</v>
       </c>
-      <c r="AZ28"/>
+      <c r="BA28"/>
     </row>
-    <row r="29" spans="1:53" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -8115,13 +8152,14 @@
       </c>
       <c r="AU29" s="35"/>
       <c r="AV29" s="35"/>
-      <c r="AW29"/>
+      <c r="AW29" s="35"/>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
       <c r="BA29"/>
+      <c r="BB29"/>
     </row>
-    <row r="30" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2</v>
       </c>
@@ -8250,13 +8288,14 @@
       </c>
       <c r="AU30" s="35"/>
       <c r="AV30" s="35"/>
-      <c r="AW30"/>
+      <c r="AW30" s="35"/>
       <c r="AX30"/>
       <c r="AY30"/>
       <c r="AZ30"/>
       <c r="BA30"/>
+      <c r="BB30"/>
     </row>
-    <row r="31" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -8385,17 +8424,18 @@
       <c r="AV31" s="35">
         <v>1</v>
       </c>
-      <c r="AW31">
+      <c r="AW31" s="35"/>
+      <c r="AX31">
         <v>1</v>
       </c>
-      <c r="AX31"/>
       <c r="AY31"/>
-      <c r="AZ31">
+      <c r="AZ31"/>
+      <c r="BA31">
         <v>1</v>
       </c>
-      <c r="BA31"/>
+      <c r="BB31"/>
     </row>
-    <row r="32" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>4</v>
       </c>
@@ -8524,13 +8564,14 @@
         <v>1</v>
       </c>
       <c r="AV32" s="35"/>
-      <c r="AW32"/>
+      <c r="AW32" s="35"/>
       <c r="AX32"/>
       <c r="AY32"/>
       <c r="AZ32"/>
       <c r="BA32"/>
+      <c r="BB32"/>
     </row>
-    <row r="33" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>5</v>
       </c>
@@ -8657,13 +8698,14 @@
         <v>1</v>
       </c>
       <c r="AV33" s="35"/>
-      <c r="AW33"/>
+      <c r="AW33" s="35"/>
       <c r="AX33"/>
       <c r="AY33"/>
       <c r="AZ33"/>
       <c r="BA33"/>
+      <c r="BB33"/>
     </row>
-    <row r="34" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>6</v>
       </c>
@@ -8792,13 +8834,14 @@
       </c>
       <c r="AU34" s="35"/>
       <c r="AV34" s="35"/>
-      <c r="AW34"/>
+      <c r="AW34" s="35"/>
       <c r="AX34"/>
       <c r="AY34"/>
       <c r="AZ34"/>
       <c r="BA34"/>
+      <c r="BB34"/>
     </row>
-    <row r="35" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>7</v>
       </c>
@@ -8927,13 +8970,14 @@
       <c r="AV35" s="35">
         <v>1</v>
       </c>
-      <c r="AW35"/>
+      <c r="AW35" s="35"/>
       <c r="AX35"/>
       <c r="AY35"/>
       <c r="AZ35"/>
       <c r="BA35"/>
+      <c r="BB35"/>
     </row>
-    <row r="36" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>8</v>
       </c>
@@ -9062,13 +9106,14 @@
       <c r="AV36" s="35">
         <v>1</v>
       </c>
-      <c r="AW36"/>
+      <c r="AW36" s="35"/>
       <c r="AX36"/>
       <c r="AY36"/>
       <c r="AZ36"/>
       <c r="BA36"/>
+      <c r="BB36"/>
     </row>
-    <row r="37" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>9</v>
       </c>
@@ -9197,13 +9242,14 @@
       <c r="AV37" s="35">
         <v>1</v>
       </c>
-      <c r="AW37"/>
+      <c r="AW37" s="35"/>
       <c r="AX37"/>
       <c r="AY37"/>
       <c r="AZ37"/>
       <c r="BA37"/>
+      <c r="BB37"/>
     </row>
-    <row r="38" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>10</v>
       </c>
@@ -9332,13 +9378,14 @@
       <c r="AV38" s="35">
         <v>1</v>
       </c>
-      <c r="AW38"/>
+      <c r="AW38" s="35"/>
       <c r="AX38"/>
       <c r="AY38"/>
       <c r="AZ38"/>
       <c r="BA38"/>
+      <c r="BB38"/>
     </row>
-    <row r="39" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>11</v>
       </c>
@@ -9467,17 +9514,18 @@
       <c r="AV39" s="35">
         <v>1</v>
       </c>
-      <c r="AW39">
+      <c r="AW39" s="35"/>
+      <c r="AX39">
         <v>1</v>
       </c>
-      <c r="AX39" t="s">
+      <c r="AY39" t="s">
         <v>974</v>
       </c>
-      <c r="AY39"/>
       <c r="AZ39"/>
       <c r="BA39"/>
+      <c r="BB39"/>
     </row>
-    <row r="40" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>12</v>
       </c>
@@ -9602,13 +9650,14 @@
       <c r="AV40" s="35" t="s">
         <v>975</v>
       </c>
-      <c r="AW40"/>
+      <c r="AW40" s="35"/>
       <c r="AX40"/>
       <c r="AY40"/>
       <c r="AZ40"/>
       <c r="BA40"/>
+      <c r="BB40"/>
     </row>
-    <row r="41" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>13</v>
       </c>
@@ -9737,13 +9786,14 @@
       <c r="AV41" s="35">
         <v>1</v>
       </c>
-      <c r="AW41"/>
+      <c r="AW41" s="35"/>
       <c r="AX41"/>
       <c r="AY41"/>
       <c r="AZ41"/>
       <c r="BA41"/>
+      <c r="BB41"/>
     </row>
-    <row r="42" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>14</v>
       </c>
@@ -9872,13 +9922,14 @@
       <c r="AV42" s="35">
         <v>1</v>
       </c>
-      <c r="AW42"/>
+      <c r="AW42" s="35"/>
       <c r="AX42"/>
       <c r="AY42"/>
       <c r="AZ42"/>
       <c r="BA42"/>
+      <c r="BB42"/>
     </row>
-    <row r="43" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>15</v>
       </c>
@@ -10007,13 +10058,14 @@
         <v>1</v>
       </c>
       <c r="AV43" s="35"/>
-      <c r="AW43"/>
+      <c r="AW43" s="35"/>
       <c r="AX43"/>
       <c r="AY43"/>
       <c r="AZ43"/>
       <c r="BA43"/>
+      <c r="BB43"/>
     </row>
-    <row r="44" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>16</v>
       </c>
@@ -10142,13 +10194,14 @@
       <c r="AV44" s="35">
         <v>1</v>
       </c>
-      <c r="AW44"/>
+      <c r="AW44" s="35"/>
       <c r="AX44"/>
       <c r="AY44"/>
       <c r="AZ44"/>
       <c r="BA44"/>
+      <c r="BB44"/>
     </row>
-    <row r="45" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>17</v>
       </c>
@@ -10277,15 +10330,16 @@
       </c>
       <c r="AU45" s="35"/>
       <c r="AV45" s="35"/>
-      <c r="AW45" t="s">
+      <c r="AW45" s="35"/>
+      <c r="AX45" t="s">
         <v>976</v>
       </c>
-      <c r="AX45"/>
       <c r="AY45"/>
       <c r="AZ45"/>
       <c r="BA45"/>
+      <c r="BB45"/>
     </row>
-    <row r="46" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>18</v>
       </c>
@@ -10410,15 +10464,16 @@
       </c>
       <c r="AU46" s="35"/>
       <c r="AV46" s="35"/>
-      <c r="AW46" t="s">
+      <c r="AW46" s="35"/>
+      <c r="AX46" t="s">
         <v>976</v>
       </c>
-      <c r="AX46"/>
       <c r="AY46"/>
       <c r="AZ46"/>
       <c r="BA46"/>
+      <c r="BB46"/>
     </row>
-    <row r="47" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>19</v>
       </c>
@@ -10547,13 +10602,14 @@
       <c r="AV47" s="35">
         <v>1</v>
       </c>
-      <c r="AW47"/>
+      <c r="AW47" s="35"/>
       <c r="AX47"/>
       <c r="AY47"/>
       <c r="AZ47"/>
       <c r="BA47"/>
+      <c r="BB47"/>
     </row>
-    <row r="48" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>20</v>
       </c>
@@ -10682,13 +10738,14 @@
       <c r="AV48" s="35">
         <v>1</v>
       </c>
-      <c r="AW48"/>
+      <c r="AW48" s="35"/>
       <c r="AX48"/>
       <c r="AY48"/>
       <c r="AZ48"/>
       <c r="BA48"/>
+      <c r="BB48"/>
     </row>
-    <row r="49" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>21</v>
       </c>
@@ -10817,13 +10874,14 @@
         <v>1</v>
       </c>
       <c r="AV49" s="35"/>
-      <c r="AW49"/>
+      <c r="AW49" s="35"/>
       <c r="AX49"/>
       <c r="AY49"/>
       <c r="AZ49"/>
       <c r="BA49"/>
+      <c r="BB49"/>
     </row>
-    <row r="50" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>22</v>
       </c>
@@ -10952,13 +11010,14 @@
         <v>1</v>
       </c>
       <c r="AV50" s="35"/>
-      <c r="AW50"/>
+      <c r="AW50" s="35"/>
       <c r="AX50"/>
       <c r="AY50"/>
       <c r="AZ50"/>
       <c r="BA50"/>
+      <c r="BB50"/>
     </row>
-    <row r="51" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>23</v>
       </c>
@@ -11059,13 +11118,14 @@
       </c>
       <c r="AU51" s="35"/>
       <c r="AV51" s="35"/>
-      <c r="AW51"/>
+      <c r="AW51" s="35"/>
       <c r="AX51"/>
       <c r="AY51"/>
       <c r="AZ51"/>
       <c r="BA51"/>
+      <c r="BB51"/>
     </row>
-    <row r="52" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>24</v>
       </c>
@@ -11194,13 +11254,14 @@
       </c>
       <c r="AU52" s="35"/>
       <c r="AV52" s="35"/>
-      <c r="AW52"/>
+      <c r="AW52" s="35"/>
       <c r="AX52"/>
       <c r="AY52"/>
       <c r="AZ52"/>
       <c r="BA52"/>
+      <c r="BB52"/>
     </row>
-    <row r="53" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>25</v>
       </c>
@@ -11331,15 +11392,16 @@
       </c>
       <c r="AU53" s="35"/>
       <c r="AV53" s="35"/>
-      <c r="AW53"/>
+      <c r="AW53" s="35"/>
       <c r="AX53"/>
       <c r="AY53"/>
-      <c r="AZ53">
+      <c r="AZ53"/>
+      <c r="BA53">
         <v>1</v>
       </c>
-      <c r="BA53"/>
+      <c r="BB53"/>
     </row>
-    <row r="54" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>26</v>
       </c>
@@ -11472,13 +11534,14 @@
       <c r="AV54" s="35" t="s">
         <v>978</v>
       </c>
-      <c r="AW54"/>
+      <c r="AW54" s="35"/>
       <c r="AX54"/>
       <c r="AY54"/>
       <c r="AZ54"/>
       <c r="BA54"/>
+      <c r="BB54"/>
     </row>
-    <row r="55" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>27</v>
       </c>
@@ -11611,13 +11674,14 @@
       <c r="AV55" s="35" t="s">
         <v>978</v>
       </c>
-      <c r="AW55"/>
+      <c r="AW55" s="35"/>
       <c r="AX55"/>
       <c r="AY55"/>
       <c r="AZ55"/>
       <c r="BA55"/>
+      <c r="BB55"/>
     </row>
-    <row r="56" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>28</v>
       </c>
@@ -11728,13 +11792,14 @@
       <c r="AV56" s="35" t="s">
         <v>981</v>
       </c>
-      <c r="AW56"/>
+      <c r="AW56" s="35"/>
       <c r="AX56"/>
       <c r="AY56"/>
       <c r="AZ56"/>
       <c r="BA56"/>
+      <c r="BB56"/>
     </row>
-    <row r="57" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>29</v>
       </c>
@@ -11839,13 +11904,14 @@
       <c r="AV57" s="35">
         <v>1</v>
       </c>
-      <c r="AW57"/>
+      <c r="AW57" s="35"/>
       <c r="AX57"/>
       <c r="AY57"/>
       <c r="AZ57"/>
       <c r="BA57"/>
+      <c r="BB57"/>
     </row>
-    <row r="58" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>30</v>
       </c>
@@ -11974,13 +12040,14 @@
       </c>
       <c r="AU58" s="35"/>
       <c r="AV58" s="35"/>
-      <c r="AW58"/>
+      <c r="AW58" s="35"/>
       <c r="AX58"/>
       <c r="AY58"/>
       <c r="AZ58"/>
       <c r="BA58"/>
+      <c r="BB58"/>
     </row>
-    <row r="59" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>31</v>
       </c>
@@ -12111,13 +12178,14 @@
         <v>1</v>
       </c>
       <c r="AV59" s="35"/>
-      <c r="AW59"/>
+      <c r="AW59" s="35"/>
       <c r="AX59"/>
       <c r="AY59"/>
       <c r="AZ59"/>
       <c r="BA59"/>
+      <c r="BB59"/>
     </row>
-    <row r="60" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>32</v>
       </c>
@@ -12244,15 +12312,16 @@
       <c r="AV60" s="35">
         <v>1</v>
       </c>
-      <c r="AW60">
+      <c r="AW60" s="35"/>
+      <c r="AX60">
         <v>1</v>
       </c>
-      <c r="AX60"/>
       <c r="AY60"/>
       <c r="AZ60"/>
       <c r="BA60"/>
+      <c r="BB60"/>
     </row>
-    <row r="61" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>33</v>
       </c>
@@ -12381,13 +12450,14 @@
         <v>1</v>
       </c>
       <c r="AV61" s="35"/>
-      <c r="AW61"/>
+      <c r="AW61" s="35"/>
       <c r="AX61"/>
       <c r="AY61"/>
       <c r="AZ61"/>
       <c r="BA61"/>
+      <c r="BB61"/>
     </row>
-    <row r="62" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>34</v>
       </c>
@@ -12516,13 +12586,14 @@
       </c>
       <c r="AU62" s="35"/>
       <c r="AV62" s="35"/>
-      <c r="AW62"/>
+      <c r="AW62" s="35"/>
       <c r="AX62"/>
       <c r="AY62"/>
       <c r="AZ62"/>
       <c r="BA62"/>
+      <c r="BB62"/>
     </row>
-    <row r="63" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <v>35</v>
       </c>
@@ -12651,19 +12722,20 @@
       <c r="AV63" s="35">
         <v>1</v>
       </c>
-      <c r="AW63"/>
-      <c r="AX63" t="s">
+      <c r="AW63" s="35"/>
+      <c r="AX63"/>
+      <c r="AY63" t="s">
         <v>982</v>
       </c>
-      <c r="AY63" t="s">
+      <c r="AZ63" t="s">
         <v>983</v>
       </c>
-      <c r="AZ63"/>
-      <c r="BA63">
+      <c r="BA63"/>
+      <c r="BB63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <v>36</v>
       </c>
@@ -12768,13 +12840,14 @@
       </c>
       <c r="AU64" s="35"/>
       <c r="AV64" s="35"/>
-      <c r="AW64"/>
+      <c r="AW64" s="35"/>
       <c r="AX64"/>
       <c r="AY64"/>
       <c r="AZ64"/>
       <c r="BA64"/>
+      <c r="BB64"/>
     </row>
-    <row r="65" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <v>37</v>
       </c>
@@ -12905,15 +12978,16 @@
       <c r="AV65" s="35">
         <v>1</v>
       </c>
-      <c r="AW65"/>
+      <c r="AW65" s="35"/>
       <c r="AX65"/>
       <c r="AY65"/>
       <c r="AZ65"/>
-      <c r="BA65">
+      <c r="BA65"/>
+      <c r="BB65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>38</v>
       </c>
@@ -13022,13 +13096,14 @@
       </c>
       <c r="AU66" s="35"/>
       <c r="AV66" s="35"/>
-      <c r="AW66"/>
+      <c r="AW66" s="35"/>
       <c r="AX66"/>
       <c r="AY66"/>
       <c r="AZ66"/>
       <c r="BA66"/>
+      <c r="BB66"/>
     </row>
-    <row r="67" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <v>39</v>
       </c>
@@ -13157,15 +13232,16 @@
       <c r="AV67" s="35">
         <v>1</v>
       </c>
-      <c r="AW67"/>
+      <c r="AW67" s="35"/>
       <c r="AX67"/>
       <c r="AY67"/>
       <c r="AZ67"/>
-      <c r="BA67">
+      <c r="BA67"/>
+      <c r="BB67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <v>40</v>
       </c>
@@ -13296,13 +13372,14 @@
         <v>1</v>
       </c>
       <c r="AV68" s="35"/>
-      <c r="AW68"/>
+      <c r="AW68" s="35"/>
       <c r="AX68"/>
       <c r="AY68"/>
       <c r="AZ68"/>
       <c r="BA68"/>
+      <c r="BB68"/>
     </row>
-    <row r="69" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <v>41</v>
       </c>
@@ -13435,13 +13512,14 @@
         <v>1</v>
       </c>
       <c r="AV69" s="42"/>
-      <c r="AW69"/>
+      <c r="AW69" s="42"/>
       <c r="AX69"/>
       <c r="AY69"/>
       <c r="AZ69"/>
       <c r="BA69"/>
+      <c r="BB69"/>
     </row>
-    <row r="70" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>42</v>
       </c>
@@ -13572,13 +13650,14 @@
       </c>
       <c r="AU70" s="35"/>
       <c r="AV70" s="35"/>
-      <c r="AW70"/>
+      <c r="AW70" s="35"/>
       <c r="AX70"/>
       <c r="AY70"/>
       <c r="AZ70"/>
       <c r="BA70"/>
+      <c r="BB70"/>
     </row>
-    <row r="71" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <v>43</v>
       </c>
@@ -13685,15 +13764,16 @@
       </c>
       <c r="AU71" s="35"/>
       <c r="AV71" s="35"/>
-      <c r="AW71"/>
+      <c r="AW71" s="35"/>
       <c r="AX71"/>
       <c r="AY71"/>
       <c r="AZ71"/>
-      <c r="BA71">
+      <c r="BA71"/>
+      <c r="BB71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <v>44</v>
       </c>
@@ -13820,17 +13900,18 @@
       </c>
       <c r="AU72" s="35"/>
       <c r="AV72" s="35"/>
-      <c r="AW72">
+      <c r="AW72" s="35"/>
+      <c r="AX72">
         <v>1</v>
       </c>
-      <c r="AX72" t="s">
+      <c r="AY72" t="s">
         <v>989</v>
       </c>
-      <c r="AY72"/>
       <c r="AZ72"/>
       <c r="BA72"/>
+      <c r="BB72"/>
     </row>
-    <row r="73" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <v>45</v>
       </c>
@@ -13959,15 +14040,16 @@
       </c>
       <c r="AU73" s="35"/>
       <c r="AV73" s="35"/>
-      <c r="AW73">
+      <c r="AW73" s="35"/>
+      <c r="AX73">
         <v>1</v>
       </c>
-      <c r="AX73"/>
       <c r="AY73"/>
       <c r="AZ73"/>
       <c r="BA73"/>
+      <c r="BB73"/>
     </row>
-    <row r="74" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>46</v>
       </c>
@@ -14096,15 +14178,16 @@
         <v>1</v>
       </c>
       <c r="AV74" s="35"/>
-      <c r="AW74"/>
+      <c r="AW74" s="35"/>
       <c r="AX74"/>
       <c r="AY74"/>
-      <c r="AZ74">
+      <c r="AZ74"/>
+      <c r="BA74">
         <v>1</v>
       </c>
-      <c r="BA74"/>
+      <c r="BB74"/>
     </row>
-    <row r="75" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <v>47</v>
       </c>
@@ -14233,15 +14316,16 @@
       </c>
       <c r="AU75" s="35"/>
       <c r="AV75" s="35"/>
-      <c r="AW75">
+      <c r="AW75" s="35"/>
+      <c r="AX75">
         <v>1</v>
       </c>
-      <c r="AX75"/>
       <c r="AY75"/>
       <c r="AZ75"/>
       <c r="BA75"/>
+      <c r="BB75"/>
     </row>
-    <row r="76" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <v>48</v>
       </c>
@@ -14370,15 +14454,16 @@
       </c>
       <c r="AU76" s="35"/>
       <c r="AV76" s="35"/>
-      <c r="AW76">
+      <c r="AW76" s="35"/>
+      <c r="AX76">
         <v>1</v>
       </c>
-      <c r="AX76"/>
       <c r="AY76"/>
       <c r="AZ76"/>
       <c r="BA76"/>
+      <c r="BB76"/>
     </row>
-    <row r="77" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <v>49</v>
       </c>
@@ -14485,13 +14570,14 @@
       </c>
       <c r="AU77" s="35"/>
       <c r="AV77" s="35"/>
-      <c r="AW77"/>
+      <c r="AW77" s="35"/>
       <c r="AX77"/>
       <c r="AY77"/>
       <c r="AZ77"/>
       <c r="BA77"/>
+      <c r="BB77"/>
     </row>
-    <row r="78" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <v>50</v>
       </c>
@@ -14622,13 +14708,14 @@
       </c>
       <c r="AU78" s="42"/>
       <c r="AV78" s="42"/>
-      <c r="AW78"/>
+      <c r="AW78" s="42"/>
       <c r="AX78"/>
       <c r="AY78"/>
       <c r="AZ78"/>
       <c r="BA78"/>
+      <c r="BB78"/>
     </row>
-    <row r="79" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <v>51</v>
       </c>
@@ -14757,13 +14844,14 @@
       </c>
       <c r="AU79" s="35"/>
       <c r="AV79" s="35"/>
-      <c r="AW79"/>
+      <c r="AW79" s="35"/>
       <c r="AX79"/>
       <c r="AY79"/>
       <c r="AZ79"/>
       <c r="BA79"/>
+      <c r="BB79"/>
     </row>
-    <row r="80" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>52</v>
       </c>
@@ -14894,13 +14982,14 @@
       </c>
       <c r="AU80" s="35"/>
       <c r="AV80" s="35"/>
-      <c r="AW80"/>
+      <c r="AW80" s="35"/>
       <c r="AX80"/>
       <c r="AY80"/>
       <c r="AZ80"/>
       <c r="BA80"/>
+      <c r="BB80"/>
     </row>
-    <row r="81" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:54" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>53</v>
       </c>
@@ -14997,13 +15086,14 @@
       </c>
       <c r="AU81" s="35"/>
       <c r="AV81" s="35"/>
-      <c r="AW81"/>
+      <c r="AW81" s="35"/>
       <c r="AX81"/>
       <c r="AY81"/>
       <c r="AZ81"/>
       <c r="BA81"/>
+      <c r="BB81"/>
     </row>
-    <row r="82" spans="1:53" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:54" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>54</v>
       </c>
@@ -15132,13 +15222,14 @@
       <c r="AV82" s="35">
         <v>1</v>
       </c>
-      <c r="AW82"/>
+      <c r="AW82" s="35"/>
       <c r="AX82"/>
       <c r="AY82"/>
       <c r="AZ82"/>
       <c r="BA82"/>
+      <c r="BB82"/>
     </row>
-    <row r="83" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>1</v>
       </c>
@@ -15269,13 +15360,14 @@
         <v>1</v>
       </c>
       <c r="AV83" s="35"/>
-      <c r="AW83"/>
+      <c r="AW83" s="35"/>
       <c r="AX83"/>
       <c r="AY83"/>
       <c r="AZ83"/>
       <c r="BA83"/>
+      <c r="BB83"/>
     </row>
-    <row r="84" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>2</v>
       </c>
@@ -15406,13 +15498,14 @@
         <v>1</v>
       </c>
       <c r="AV84" s="35"/>
-      <c r="AW84"/>
+      <c r="AW84" s="35"/>
       <c r="AX84"/>
       <c r="AY84"/>
       <c r="AZ84"/>
       <c r="BA84"/>
+      <c r="BB84"/>
     </row>
-    <row r="85" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>3</v>
       </c>
@@ -15543,13 +15636,14 @@
       <c r="AV85" s="35">
         <v>1</v>
       </c>
-      <c r="AW85"/>
+      <c r="AW85" s="35"/>
       <c r="AX85"/>
       <c r="AY85"/>
       <c r="AZ85"/>
       <c r="BA85"/>
+      <c r="BB85"/>
     </row>
-    <row r="86" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>4</v>
       </c>
@@ -15682,13 +15776,14 @@
       </c>
       <c r="AU86" s="35"/>
       <c r="AV86" s="35"/>
-      <c r="AW86"/>
+      <c r="AW86" s="35"/>
       <c r="AX86"/>
       <c r="AY86"/>
       <c r="AZ86"/>
       <c r="BA86"/>
+      <c r="BB86"/>
     </row>
-    <row r="87" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>5</v>
       </c>
@@ -15819,13 +15914,14 @@
         <v>1</v>
       </c>
       <c r="AV87" s="35"/>
-      <c r="AW87"/>
+      <c r="AW87" s="35"/>
       <c r="AX87"/>
       <c r="AY87"/>
       <c r="AZ87"/>
       <c r="BA87"/>
+      <c r="BB87"/>
     </row>
-    <row r="88" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <v>6</v>
       </c>
@@ -15958,13 +16054,14 @@
       </c>
       <c r="AU88" s="35"/>
       <c r="AV88" s="35"/>
-      <c r="AW88"/>
+      <c r="AW88" s="35"/>
       <c r="AX88"/>
       <c r="AY88"/>
       <c r="AZ88"/>
       <c r="BA88"/>
+      <c r="BB88"/>
     </row>
-    <row r="89" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <v>7</v>
       </c>
@@ -16095,13 +16192,14 @@
       </c>
       <c r="AU89" s="35"/>
       <c r="AV89" s="35"/>
-      <c r="AW89"/>
+      <c r="AW89" s="35"/>
       <c r="AX89"/>
       <c r="AY89"/>
       <c r="AZ89"/>
       <c r="BA89"/>
+      <c r="BB89"/>
     </row>
-    <row r="90" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <v>8</v>
       </c>
@@ -16232,15 +16330,16 @@
       <c r="AV90" s="35">
         <v>1</v>
       </c>
-      <c r="AW90"/>
+      <c r="AW90" s="35"/>
       <c r="AX90"/>
       <c r="AY90"/>
       <c r="AZ90"/>
-      <c r="BA90">
+      <c r="BA90"/>
+      <c r="BB90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <v>9</v>
       </c>
@@ -16371,13 +16470,14 @@
         <v>1</v>
       </c>
       <c r="AV91" s="35"/>
-      <c r="AW91"/>
+      <c r="AW91" s="35"/>
       <c r="AX91"/>
       <c r="AY91"/>
       <c r="AZ91"/>
       <c r="BA91"/>
+      <c r="BB91"/>
     </row>
-    <row r="92" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>10</v>
       </c>
@@ -16508,15 +16608,16 @@
         <v>1</v>
       </c>
       <c r="AV92" s="35"/>
-      <c r="AW92">
+      <c r="AW92" s="35"/>
+      <c r="AX92">
         <v>1</v>
       </c>
-      <c r="AX92"/>
       <c r="AY92"/>
       <c r="AZ92"/>
       <c r="BA92"/>
+      <c r="BB92"/>
     </row>
-    <row r="93" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <v>11</v>
       </c>
@@ -16647,13 +16748,14 @@
         <v>1</v>
       </c>
       <c r="AV93" s="35"/>
-      <c r="AW93"/>
+      <c r="AW93" s="35"/>
       <c r="AX93"/>
       <c r="AY93"/>
       <c r="AZ93"/>
       <c r="BA93"/>
+      <c r="BB93"/>
     </row>
-    <row r="94" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <v>12</v>
       </c>
@@ -16780,13 +16882,14 @@
         <v>1</v>
       </c>
       <c r="AV94" s="35"/>
-      <c r="AW94"/>
+      <c r="AW94" s="35"/>
       <c r="AX94"/>
       <c r="AY94"/>
       <c r="AZ94"/>
       <c r="BA94"/>
+      <c r="BB94"/>
     </row>
-    <row r="95" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <v>13</v>
       </c>
@@ -16917,13 +17020,14 @@
         <v>1</v>
       </c>
       <c r="AV95" s="35"/>
-      <c r="AW95"/>
+      <c r="AW95" s="35"/>
       <c r="AX95"/>
       <c r="AY95"/>
       <c r="AZ95"/>
       <c r="BA95"/>
+      <c r="BB95"/>
     </row>
-    <row r="96" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
         <v>14</v>
       </c>
@@ -17056,13 +17160,14 @@
         <v>1</v>
       </c>
       <c r="AV96" s="35"/>
-      <c r="AW96"/>
+      <c r="AW96" s="35"/>
       <c r="AX96"/>
       <c r="AY96"/>
       <c r="AZ96"/>
       <c r="BA96"/>
+      <c r="BB96"/>
     </row>
-    <row r="97" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
         <v>15</v>
       </c>
@@ -17193,13 +17298,14 @@
       <c r="AV97" s="35">
         <v>1</v>
       </c>
-      <c r="AW97"/>
+      <c r="AW97" s="35"/>
       <c r="AX97"/>
       <c r="AY97"/>
       <c r="AZ97"/>
       <c r="BA97"/>
+      <c r="BB97"/>
     </row>
-    <row r="98" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <v>16</v>
       </c>
@@ -17306,15 +17412,16 @@
       </c>
       <c r="AU98" s="35"/>
       <c r="AV98" s="35"/>
-      <c r="AW98"/>
+      <c r="AW98" s="35"/>
       <c r="AX98"/>
       <c r="AY98"/>
-      <c r="AZ98">
+      <c r="AZ98"/>
+      <c r="BA98">
         <v>1</v>
       </c>
-      <c r="BA98"/>
+      <c r="BB98"/>
     </row>
-    <row r="99" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
         <v>17</v>
       </c>
@@ -17417,15 +17524,16 @@
       </c>
       <c r="AU99" s="35"/>
       <c r="AV99" s="35"/>
-      <c r="AW99"/>
+      <c r="AW99" s="35"/>
       <c r="AX99"/>
       <c r="AY99"/>
-      <c r="AZ99">
+      <c r="AZ99"/>
+      <c r="BA99">
         <v>1</v>
       </c>
-      <c r="BA99"/>
+      <c r="BB99"/>
     </row>
-    <row r="100" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <v>18</v>
       </c>
@@ -17534,15 +17642,16 @@
       </c>
       <c r="AU100" s="35"/>
       <c r="AV100" s="35"/>
-      <c r="AW100"/>
+      <c r="AW100" s="35"/>
       <c r="AX100"/>
       <c r="AY100"/>
-      <c r="AZ100">
+      <c r="AZ100"/>
+      <c r="BA100">
         <v>1</v>
       </c>
-      <c r="BA100"/>
+      <c r="BB100"/>
     </row>
-    <row r="101" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <v>19</v>
       </c>
@@ -17673,13 +17782,14 @@
       </c>
       <c r="AU101" s="35"/>
       <c r="AV101" s="35"/>
-      <c r="AW101"/>
+      <c r="AW101" s="35"/>
       <c r="AX101"/>
       <c r="AY101"/>
       <c r="AZ101"/>
       <c r="BA101"/>
+      <c r="BB101"/>
     </row>
-    <row r="102" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <v>20</v>
       </c>
@@ -17788,13 +17898,14 @@
       </c>
       <c r="AU102" s="35"/>
       <c r="AV102" s="35"/>
-      <c r="AW102"/>
+      <c r="AW102" s="35"/>
       <c r="AX102"/>
       <c r="AY102"/>
       <c r="AZ102"/>
       <c r="BA102"/>
+      <c r="BB102"/>
     </row>
-    <row r="103" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
         <v>21</v>
       </c>
@@ -17923,13 +18034,14 @@
         <v>1</v>
       </c>
       <c r="AV103" s="35"/>
-      <c r="AW103"/>
+      <c r="AW103" s="35"/>
       <c r="AX103"/>
       <c r="AY103"/>
       <c r="AZ103"/>
       <c r="BA103"/>
+      <c r="BB103"/>
     </row>
-    <row r="104" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17">
         <v>22</v>
       </c>
@@ -18044,15 +18156,16 @@
       </c>
       <c r="AU104" s="35"/>
       <c r="AV104" s="35"/>
-      <c r="AW104"/>
-      <c r="AX104" s="36" t="s">
+      <c r="AW104" s="35"/>
+      <c r="AX104"/>
+      <c r="AY104" s="36" t="s">
         <v>996</v>
       </c>
-      <c r="AY104"/>
       <c r="AZ104"/>
       <c r="BA104"/>
+      <c r="BB104"/>
     </row>
-    <row r="105" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
         <v>23</v>
       </c>
@@ -18157,13 +18270,14 @@
       </c>
       <c r="AU105" s="35"/>
       <c r="AV105" s="35"/>
-      <c r="AW105"/>
+      <c r="AW105" s="35"/>
       <c r="AX105"/>
       <c r="AY105"/>
       <c r="AZ105"/>
       <c r="BA105"/>
+      <c r="BB105"/>
     </row>
-    <row r="106" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <v>24</v>
       </c>
@@ -18258,13 +18372,14 @@
       </c>
       <c r="AU106" s="35"/>
       <c r="AV106" s="35"/>
-      <c r="AW106"/>
+      <c r="AW106" s="35"/>
       <c r="AX106"/>
       <c r="AY106"/>
       <c r="AZ106"/>
       <c r="BA106"/>
+      <c r="BB106"/>
     </row>
-    <row r="107" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <v>25</v>
       </c>
@@ -18395,13 +18510,14 @@
         <v>1</v>
       </c>
       <c r="AV107" s="35"/>
-      <c r="AW107"/>
+      <c r="AW107" s="35"/>
       <c r="AX107"/>
       <c r="AY107"/>
       <c r="AZ107"/>
       <c r="BA107"/>
+      <c r="BB107"/>
     </row>
-    <row r="108" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <v>26</v>
       </c>
@@ -18532,13 +18648,14 @@
       </c>
       <c r="AU108" s="42"/>
       <c r="AV108" s="42"/>
-      <c r="AW108"/>
+      <c r="AW108" s="42"/>
       <c r="AX108"/>
       <c r="AY108"/>
       <c r="AZ108"/>
       <c r="BA108"/>
+      <c r="BB108"/>
     </row>
-    <row r="109" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <v>27</v>
       </c>
@@ -18669,13 +18786,14 @@
         <v>1</v>
       </c>
       <c r="AV109" s="35"/>
-      <c r="AW109"/>
+      <c r="AW109" s="35"/>
       <c r="AX109"/>
       <c r="AY109"/>
       <c r="AZ109"/>
       <c r="BA109"/>
+      <c r="BB109"/>
     </row>
-    <row r="110" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <v>28</v>
       </c>
@@ -18808,13 +18926,14 @@
         <v>1</v>
       </c>
       <c r="AV110" s="35"/>
-      <c r="AW110"/>
+      <c r="AW110" s="35"/>
       <c r="AX110"/>
       <c r="AY110"/>
       <c r="AZ110"/>
       <c r="BA110"/>
+      <c r="BB110"/>
     </row>
-    <row r="111" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <v>29</v>
       </c>
@@ -18945,13 +19064,14 @@
         <v>1</v>
       </c>
       <c r="AV111" s="35"/>
-      <c r="AW111"/>
+      <c r="AW111" s="35"/>
       <c r="AX111"/>
       <c r="AY111"/>
       <c r="AZ111"/>
       <c r="BA111"/>
+      <c r="BB111"/>
     </row>
-    <row r="112" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <v>30</v>
       </c>
@@ -19082,15 +19202,16 @@
       <c r="AV112" s="35">
         <v>1</v>
       </c>
-      <c r="AW112"/>
-      <c r="AX112" t="s">
+      <c r="AW112" s="35"/>
+      <c r="AX112"/>
+      <c r="AY112" t="s">
         <v>999</v>
       </c>
-      <c r="AY112"/>
       <c r="AZ112"/>
       <c r="BA112"/>
+      <c r="BB112"/>
     </row>
-    <row r="113" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <v>31</v>
       </c>
@@ -19221,13 +19342,14 @@
       </c>
       <c r="AU113" s="35"/>
       <c r="AV113" s="35"/>
-      <c r="AW113"/>
+      <c r="AW113" s="35"/>
       <c r="AX113"/>
       <c r="AY113"/>
       <c r="AZ113"/>
       <c r="BA113"/>
+      <c r="BB113"/>
     </row>
-    <row r="114" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <v>32</v>
       </c>
@@ -19322,13 +19444,14 @@
       </c>
       <c r="AU114" s="35"/>
       <c r="AV114" s="35"/>
-      <c r="AW114"/>
+      <c r="AW114" s="35"/>
       <c r="AX114"/>
       <c r="AY114"/>
       <c r="AZ114"/>
       <c r="BA114"/>
+      <c r="BB114"/>
     </row>
-    <row r="115" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <v>33</v>
       </c>
@@ -19437,13 +19560,14 @@
       </c>
       <c r="AU115" s="35"/>
       <c r="AV115" s="35"/>
-      <c r="AW115"/>
+      <c r="AW115" s="35"/>
       <c r="AX115"/>
       <c r="AY115"/>
       <c r="AZ115"/>
       <c r="BA115"/>
+      <c r="BB115"/>
     </row>
-    <row r="116" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <v>34</v>
       </c>
@@ -19574,13 +19698,14 @@
         <v>1</v>
       </c>
       <c r="AV116" s="35"/>
-      <c r="AW116"/>
+      <c r="AW116" s="35"/>
       <c r="AX116"/>
       <c r="AY116"/>
       <c r="AZ116"/>
       <c r="BA116"/>
+      <c r="BB116"/>
     </row>
-    <row r="117" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <v>35</v>
       </c>
@@ -19711,13 +19836,14 @@
         <v>1</v>
       </c>
       <c r="AV117" s="35"/>
-      <c r="AW117"/>
+      <c r="AW117" s="35"/>
       <c r="AX117"/>
       <c r="AY117"/>
       <c r="AZ117"/>
       <c r="BA117"/>
+      <c r="BB117"/>
     </row>
-    <row r="118" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <v>36</v>
       </c>
@@ -19850,13 +19976,14 @@
       </c>
       <c r="AU118" s="35"/>
       <c r="AV118" s="35"/>
-      <c r="AW118"/>
+      <c r="AW118" s="35"/>
       <c r="AX118"/>
       <c r="AY118"/>
       <c r="AZ118"/>
       <c r="BA118"/>
+      <c r="BB118"/>
     </row>
-    <row r="119" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <v>37</v>
       </c>
@@ -19987,13 +20114,14 @@
       <c r="AV119" s="35">
         <v>1</v>
       </c>
-      <c r="AW119"/>
+      <c r="AW119" s="35"/>
       <c r="AX119"/>
       <c r="AY119"/>
       <c r="AZ119"/>
       <c r="BA119"/>
+      <c r="BB119"/>
     </row>
-    <row r="120" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <v>38</v>
       </c>
@@ -20124,13 +20252,14 @@
       <c r="AV120" s="35">
         <v>1</v>
       </c>
-      <c r="AW120"/>
+      <c r="AW120" s="35"/>
       <c r="AX120"/>
       <c r="AY120"/>
       <c r="AZ120"/>
       <c r="BA120"/>
+      <c r="BB120"/>
     </row>
-    <row r="121" spans="1:53" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:54" s="10" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17">
         <v>39</v>
       </c>
@@ -20263,13 +20392,14 @@
       <c r="AV121" s="35">
         <v>1</v>
       </c>
-      <c r="AW121"/>
+      <c r="AW121" s="35"/>
       <c r="AX121"/>
       <c r="AY121"/>
       <c r="AZ121"/>
       <c r="BA121"/>
+      <c r="BB121"/>
     </row>
-    <row r="122" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
         <v>40</v>
       </c>
@@ -20364,13 +20494,14 @@
       </c>
       <c r="AU122" s="35"/>
       <c r="AV122" s="35"/>
-      <c r="AW122"/>
+      <c r="AW122" s="35"/>
       <c r="AX122"/>
       <c r="AY122"/>
       <c r="AZ122"/>
       <c r="BA122"/>
+      <c r="BB122"/>
     </row>
-    <row r="123" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <v>41</v>
       </c>
@@ -20501,13 +20632,14 @@
       <c r="AV123" s="35">
         <v>1</v>
       </c>
-      <c r="AW123"/>
+      <c r="AW123" s="35"/>
       <c r="AX123"/>
       <c r="AY123"/>
       <c r="AZ123"/>
       <c r="BA123"/>
+      <c r="BB123"/>
     </row>
-    <row r="124" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17">
         <v>42</v>
       </c>
@@ -20612,15 +20744,16 @@
       </c>
       <c r="AU124" s="35"/>
       <c r="AV124" s="35"/>
-      <c r="AW124"/>
+      <c r="AW124" s="35"/>
       <c r="AX124"/>
       <c r="AY124"/>
       <c r="AZ124"/>
-      <c r="BA124">
+      <c r="BA124"/>
+      <c r="BB124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17">
         <v>43</v>
       </c>
@@ -20727,15 +20860,16 @@
       </c>
       <c r="AU125" s="35"/>
       <c r="AV125" s="35"/>
-      <c r="AW125"/>
+      <c r="AW125" s="35"/>
       <c r="AX125"/>
       <c r="AY125"/>
       <c r="AZ125"/>
-      <c r="BA125">
+      <c r="BA125"/>
+      <c r="BB125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <v>44</v>
       </c>
@@ -20864,13 +20998,14 @@
       <c r="AV126" s="35">
         <v>1</v>
       </c>
-      <c r="AW126"/>
+      <c r="AW126" s="35"/>
       <c r="AX126"/>
       <c r="AY126"/>
       <c r="AZ126"/>
       <c r="BA126"/>
+      <c r="BB126"/>
     </row>
-    <row r="127" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17">
         <v>45</v>
       </c>
@@ -20976,15 +21111,16 @@
       </c>
       <c r="AU127" s="35"/>
       <c r="AV127" s="35"/>
-      <c r="AW127"/>
+      <c r="AW127" s="35"/>
       <c r="AX127"/>
       <c r="AY127"/>
       <c r="AZ127"/>
-      <c r="BA127">
+      <c r="BA127"/>
+      <c r="BB127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:54" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
         <v>46</v>
       </c>
@@ -21090,11 +21226,12 @@
       </c>
       <c r="AU128" s="35"/>
       <c r="AV128" s="35"/>
-      <c r="AW128"/>
+      <c r="AW128" s="35"/>
       <c r="AX128"/>
       <c r="AY128"/>
       <c r="AZ128"/>
-      <c r="BA128">
+      <c r="BA128"/>
+      <c r="BB128">
         <v>1</v>
       </c>
     </row>
@@ -21147,7 +21284,18 @@
       <c r="E144"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}"/>
+  <autoFilter ref="A1:BB128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
+    <filterColumn colId="31">
+      <filters>
+        <filter val="Include"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="45">
+      <filters blank="1">
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I26" r:id="rId1" xr:uid="{58C1A98B-2A57-6B4E-B60F-F2338B60F05C}"/>

--- a/puttogether.xlsx
+++ b/puttogether.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C5EDD-64A6-A44E-86F2-379E3C855D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391D6C3-88CD-904D-81BA-AF3AB2CDDA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -4228,8 +4228,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BC128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4414,7 +4414,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="BB3"/>
     </row>
-    <row r="4" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="BB4"/>
     </row>
-    <row r="5" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="BA7"/>
       <c r="BB7"/>
     </row>
-    <row r="8" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="BA9"/>
       <c r="BB9"/>
     </row>
-    <row r="10" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -5668,7 +5668,7 @@
       <c r="BA10"/>
       <c r="BB10"/>
     </row>
-    <row r="11" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="BA11"/>
       <c r="BB11"/>
     </row>
-    <row r="12" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="BA12"/>
       <c r="BB12"/>
     </row>
-    <row r="13" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="BB13"/>
     </row>
-    <row r="14" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="BB14"/>
     </row>
-    <row r="15" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="BA15"/>
       <c r="BB15"/>
     </row>
-    <row r="16" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="BA16"/>
       <c r="BB16"/>
     </row>
-    <row r="17" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="BA18"/>
       <c r="BB18"/>
     </row>
-    <row r="19" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="BB22"/>
     </row>
-    <row r="23" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="BB28"/>
     </row>
-    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>6</v>
       </c>
@@ -10557,7 +10557,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>18</v>
       </c>
@@ -12433,7 +12433,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>32</v>
       </c>
@@ -12572,7 +12572,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>33</v>
       </c>
@@ -12711,7 +12711,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>34</v>
       </c>
@@ -14325,7 +14325,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>46</v>
       </c>
@@ -15141,7 +15141,7 @@
       <c r="BB79"/>
       <c r="BC79"/>
     </row>
-    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>52</v>
       </c>
@@ -15524,7 +15524,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>1</v>
       </c>
@@ -15665,7 +15665,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>2</v>
       </c>
@@ -15806,7 +15806,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>3</v>
       </c>
@@ -15947,7 +15947,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>4</v>
       </c>
@@ -16090,7 +16090,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>5</v>
       </c>
@@ -16370,7 +16370,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <v>7</v>
       </c>
@@ -16511,7 +16511,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <v>8</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <v>9</v>
       </c>
@@ -16795,7 +16795,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>10</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <v>11</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <v>12</v>
       </c>
@@ -17216,7 +17216,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <v>13</v>
       </c>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="BC100"/>
     </row>
-    <row r="101" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <v>19</v>
       </c>
@@ -18724,7 +18724,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <v>25</v>
       </c>
@@ -19006,7 +19006,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <v>27</v>
       </c>
@@ -19292,7 +19292,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <v>29</v>
       </c>
@@ -19433,7 +19433,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <v>30</v>
       </c>
@@ -19576,7 +19576,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <v>31</v>
       </c>
@@ -19933,7 +19933,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <v>34</v>
       </c>
@@ -20501,7 +20501,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <v>38</v>
       </c>
@@ -20882,7 +20882,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <v>41</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <v>44</v>
       </c>
@@ -21620,6 +21620,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
+    <filterColumn colId="21">
+      <filters>
+        <filter val="Positive"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="32">
       <filters>
         <filter val="Include"/>
@@ -21662,6 +21667,7 @@
     <hyperlink ref="J12" r:id="rId29" display="https://www.sciencedirect.com/science/article/pii/S0954611121001025?via%3Dihub" xr:uid="{ADF8A7C5-E43B-AF49-ADEA-A2A4B4C8AD6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/puttogether.xlsx
+++ b/puttogether.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1391D6C3-88CD-904D-81BA-AF3AB2CDDA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79332203-3399-4D46-8D7E-31604FFA0585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7858" uniqueCount="1106">
   <si>
     <t>referenceid</t>
   </si>
@@ -3449,6 +3449,171 @@
   <si>
     <t xml:space="preserve"> https://clinicaltrials.gov/ct2/show/NCT00459420</t>
   </si>
+  <si>
+    <t>NCT00974974</t>
+  </si>
+  <si>
+    <t>NCT01227655</t>
+  </si>
+  <si>
+    <t>NCT00905372</t>
+  </si>
+  <si>
+    <t>NCT00349622</t>
+  </si>
+  <si>
+    <t>NCT00574132</t>
+  </si>
+  <si>
+    <t>NCT00943748</t>
+  </si>
+  <si>
+    <t>NCT00545662</t>
+  </si>
+  <si>
+    <t>NCT03197740</t>
+  </si>
+  <si>
+    <t>NCT03505021</t>
+  </si>
+  <si>
+    <t>NCT01224106</t>
+  </si>
+  <si>
+    <t>10.1016/S1474-4422(13)70025-5</t>
+  </si>
+  <si>
+    <t>IPX066 ER Carb/levadopa</t>
+  </si>
+  <si>
+    <t>postapproval</t>
+  </si>
+  <si>
+    <t>off -time as a percentage of waking hours </t>
+  </si>
+  <si>
+    <t>10.1001/jamaneurol.2016.4703</t>
+  </si>
+  <si>
+    <t> Opicapone as Adjunct to Levodopa Therapy</t>
+  </si>
+  <si>
+    <t>change from baseline in absolute off-time vs placebo based on patient diaries</t>
+  </si>
+  <si>
+    <t>took 50</t>
+  </si>
+  <si>
+    <t>solanezumab</t>
+  </si>
+  <si>
+    <t>preapproval</t>
+  </si>
+  <si>
+    <t>changes from baseline to week 80 in scores on the 11-item cognitive subscale of the Alzheimer's Disease Assessment Scale (ADAS-cog11; range, 0 to 70, with higher scores indicating greater cognitive impairment) and the Alzheimer's Disease Cooperative Study–Activities of Daily Living scale (ADCS-ADL; range, 0 to 78, with lower scores indicating worse functioning)</t>
+  </si>
+  <si>
+    <t>10.1016/S1474-4422(14)70222-4</t>
+  </si>
+  <si>
+    <t>ceftriaxone</t>
+  </si>
+  <si>
+    <t>Non_inferiority</t>
+  </si>
+  <si>
+    <t>survival and functional decline</t>
+  </si>
+  <si>
+    <t>is this WdAe just the P3 part</t>
+  </si>
+  <si>
+    <t>the ADAS-cog11 and DAD scores,</t>
+  </si>
+  <si>
+    <t>took 1mg</t>
+  </si>
+  <si>
+    <t>10.1089/ars.2013.5593</t>
+  </si>
+  <si>
+    <t>10.1186/s12883-015-0331-3</t>
+  </si>
+  <si>
+    <t>Deferiprone</t>
+  </si>
+  <si>
+    <t>iron overload</t>
+  </si>
+  <si>
+    <t>include ??? this is a biomarker pharma?</t>
+  </si>
+  <si>
+    <t>10.1001/jama.2012.13256</t>
+  </si>
+  <si>
+    <t>functional status and cognitive performance at 90 day-a global statistic18 of the Network Core Battery</t>
+  </si>
+  <si>
+    <t>pharma donated the drugs?</t>
+  </si>
+  <si>
+    <t>10.3988/jcn.2022.18.4.428</t>
+  </si>
+  <si>
+    <t>10.1016/S1474-4422(21)00242-8</t>
+  </si>
+  <si>
+    <t>Levosimendan (ODM-109)</t>
+  </si>
+  <si>
+    <t>change from baseline in supine SVC at 12 weeks, assessed as percentage of predicted normal sitting SVC.</t>
+  </si>
+  <si>
+    <t>10.1186/s13195-017-0318-y</t>
+  </si>
+  <si>
+    <t>Gantenerumab</t>
+  </si>
+  <si>
+    <t>change from baseline in CDR-SB at week 104</t>
+  </si>
+  <si>
+    <t>225 mg</t>
+  </si>
+  <si>
+    <t>Off -time, percentage of waking day†</t>
+  </si>
+  <si>
+    <t>mean diff</t>
+  </si>
+  <si>
+    <t>off-time</t>
+  </si>
+  <si>
+    <t>\\-54.3</t>
+  </si>
+  <si>
+    <t>adjusted least squares mean change fr</t>
+  </si>
+  <si>
+    <t>ADas cog 11</t>
+  </si>
+  <si>
+    <t>least squares mean difference </t>
+  </si>
+  <si>
+    <t>svc %</t>
+  </si>
+  <si>
+    <t>ETD</t>
+  </si>
+  <si>
+    <t>cdr-sb</t>
+  </si>
+  <si>
+    <t>LSmean</t>
+  </si>
 </sst>
 </file>
 
@@ -3457,7 +3622,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3498,8 +3663,27 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3539,6 +3723,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3741,7 +3931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3900,11 +4090,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4226,17 +4436,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BC128"/>
+  <dimension ref="A1:BC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="Z47" workbookViewId="0">
+      <selection activeCell="AG136" sqref="AG136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="32"/>
     <col min="3" max="3" width="16.5" style="48" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="32"/>
+    <col min="4" max="4" width="10.83203125" style="32"/>
+    <col min="5" max="5" width="18" style="32" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="32" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" style="32" customWidth="1"/>
     <col min="8" max="25" width="10.83203125" style="32"/>
@@ -21618,6 +21829,1782 @@
         <v>1</v>
       </c>
     </row>
+    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A129" s="65">
+        <v>1</v>
+      </c>
+      <c r="B129" s="66">
+        <v>44944.498715277776</v>
+      </c>
+      <c r="C129" s="66">
+        <v>44944.524247685185</v>
+      </c>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="68" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G129" s="67"/>
+      <c r="H129" s="64" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I129" s="69"/>
+      <c r="J129" s="64">
+        <v>0</v>
+      </c>
+      <c r="K129" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L129" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M129" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N129" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="O129" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="P129" s="64" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q129" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R129" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S129" s="64" t="s">
+        <v>1064</v>
+      </c>
+      <c r="T129" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="U129" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="V129" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="W129" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X129" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y129" s="64"/>
+      <c r="Z129" s="64" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AA129" s="67"/>
+      <c r="AB129" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC129" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD129" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE129" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF129" s="64"/>
+      <c r="AG129" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH129" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI129" s="64" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AJ129" s="64">
+        <v>-13.06</v>
+      </c>
+      <c r="AK129" s="64">
+        <v>-6.21</v>
+      </c>
+      <c r="AL129" s="64">
+        <v>-5.97</v>
+      </c>
+      <c r="AM129" s="64" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AN129" s="64">
+        <v>-9.0500000000000007</v>
+      </c>
+      <c r="AO129" s="64">
+        <v>-2.89</v>
+      </c>
+      <c r="AP129" s="64" t="s">
+        <v>648</v>
+      </c>
+      <c r="AQ129" s="64">
+        <v>3</v>
+      </c>
+      <c r="AR129" s="64">
+        <v>201</v>
+      </c>
+      <c r="AS129" s="64">
+        <v>3</v>
+      </c>
+      <c r="AT129" s="64">
+        <v>192</v>
+      </c>
+      <c r="AU129" s="60">
+        <v>1</v>
+      </c>
+      <c r="AV129" s="60"/>
+      <c r="AW129" s="60"/>
+    </row>
+    <row r="130" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A130" s="65">
+        <v>2</v>
+      </c>
+      <c r="B130" s="66">
+        <v>44944.564444444448</v>
+      </c>
+      <c r="C130" s="66">
+        <v>44944.567430555559</v>
+      </c>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="68" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G130" s="67"/>
+      <c r="H130" s="64" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I130" s="69"/>
+      <c r="J130" s="64">
+        <v>0</v>
+      </c>
+      <c r="K130" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L130" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M130" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N130" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="O130" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="P130" s="64" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q130" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R130" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S130" s="64" t="s">
+        <v>1067</v>
+      </c>
+      <c r="T130" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="U130" s="64" t="s">
+        <v>1068</v>
+      </c>
+      <c r="V130" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="W130" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X130" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y130" s="64"/>
+      <c r="Z130" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA130" s="67"/>
+      <c r="AB130" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC130" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD130" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE130" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF130" s="64"/>
+      <c r="AG130" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH130" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI130" s="64" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AJ130" s="64">
+        <v>-118.8</v>
+      </c>
+      <c r="AK130" s="64">
+        <v>-64.5</v>
+      </c>
+      <c r="AL130" s="64" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AM130" s="64" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AN130" s="64">
+        <v>-96.2</v>
+      </c>
+      <c r="AO130" s="64">
+        <v>-12.4</v>
+      </c>
+      <c r="AP130" s="64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AQ130" s="64">
+        <v>17</v>
+      </c>
+      <c r="AR130" s="64">
+        <v>154</v>
+      </c>
+      <c r="AS130" s="64">
+        <v>9</v>
+      </c>
+      <c r="AT130" s="64">
+        <v>144</v>
+      </c>
+      <c r="AU130" s="60">
+        <v>1</v>
+      </c>
+      <c r="AV130" s="60"/>
+      <c r="AW130" s="60"/>
+    </row>
+    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A131" s="65">
+        <v>3</v>
+      </c>
+      <c r="B131" s="66">
+        <v>44944.574594907404</v>
+      </c>
+      <c r="C131" s="66">
+        <v>44944.577175925922</v>
+      </c>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="68" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G131" s="67"/>
+      <c r="H131" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="I131" s="69"/>
+      <c r="J131" s="64">
+        <v>0</v>
+      </c>
+      <c r="K131" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L131" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M131" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N131" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="O131" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P131" s="64" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q131" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R131" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S131" s="64" t="s">
+        <v>1071</v>
+      </c>
+      <c r="T131" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="U131" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="V131" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="W131" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X131" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y131" s="64"/>
+      <c r="Z131" s="64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AA131" s="67"/>
+      <c r="AB131" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC131" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD131" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE131" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF131" s="64"/>
+      <c r="AG131" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH131" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI131" s="64" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AJ131" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="AK131" s="64">
+        <v>4.5</v>
+      </c>
+      <c r="AL131" s="64">
+        <v>-0.8</v>
+      </c>
+      <c r="AM131" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN131" s="64">
+        <v>-2.1</v>
+      </c>
+      <c r="AO131" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="AP131" s="64">
+        <v>0.24</v>
+      </c>
+      <c r="AQ131" s="64">
+        <v>33</v>
+      </c>
+      <c r="AR131" s="64">
+        <v>506</v>
+      </c>
+      <c r="AS131" s="64">
+        <v>39</v>
+      </c>
+      <c r="AT131" s="64">
+        <v>506</v>
+      </c>
+      <c r="AU131" s="60"/>
+      <c r="AV131" s="60">
+        <v>1</v>
+      </c>
+      <c r="AW131" s="60"/>
+    </row>
+    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A132" s="65">
+        <v>4</v>
+      </c>
+      <c r="B132" s="66">
+        <v>44944.590543981481</v>
+      </c>
+      <c r="C132" s="66">
+        <v>44944.599224537036</v>
+      </c>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="68" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G132" s="67"/>
+      <c r="H132" s="64" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I132" s="69"/>
+      <c r="J132" s="64">
+        <v>0</v>
+      </c>
+      <c r="K132" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="L132" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="M132" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N132" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="O132" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="P132" s="64" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Q132" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R132" s="64" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S132" s="64" t="s">
+        <v>1075</v>
+      </c>
+      <c r="T132" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="U132" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="V132" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="W132" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X132" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y132" s="64"/>
+      <c r="Z132" s="64" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AA132" s="67"/>
+      <c r="AB132" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC132" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD132" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE132" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF132" s="64"/>
+      <c r="AG132" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH132" s="64" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AI132" s="64" t="s">
+        <v>964</v>
+      </c>
+      <c r="AJ132" s="64">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="AK132" s="64">
+        <v>-1.22</v>
+      </c>
+      <c r="AL132" s="64">
+        <v>0.09</v>
+      </c>
+      <c r="AM132" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN132" s="64">
+        <v>-0.06</v>
+      </c>
+      <c r="AO132" s="64">
+        <v>0.24</v>
+      </c>
+      <c r="AP132" s="64">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AQ132" s="64">
+        <v>84</v>
+      </c>
+      <c r="AR132" s="64">
+        <v>340</v>
+      </c>
+      <c r="AS132" s="64">
+        <v>32</v>
+      </c>
+      <c r="AT132" s="64">
+        <v>173</v>
+      </c>
+      <c r="AU132" s="60"/>
+      <c r="AV132" s="60"/>
+      <c r="AW132" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A133" s="65">
+        <v>5</v>
+      </c>
+      <c r="B133" s="66">
+        <v>44944.599826388891</v>
+      </c>
+      <c r="C133" s="66">
+        <v>44944.609918981485</v>
+      </c>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="68" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G133" s="67"/>
+      <c r="H133" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="I133" s="69"/>
+      <c r="J133" s="64">
+        <v>0</v>
+      </c>
+      <c r="K133" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L133" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M133" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N133" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="O133" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P133" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q133" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R133" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S133" s="64" t="s">
+        <v>1077</v>
+      </c>
+      <c r="T133" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="U133" s="64" t="s">
+        <v>1078</v>
+      </c>
+      <c r="V133" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="W133" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X133" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y133" s="64"/>
+      <c r="Z133" s="64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AA133" s="67"/>
+      <c r="AB133" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC133" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD133" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE133" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF133" s="64"/>
+      <c r="AG133" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH133" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI133" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ133" s="64">
+        <v>7.8</v>
+      </c>
+      <c r="AK133" s="64">
+        <v>7.4</v>
+      </c>
+      <c r="AL133" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="AM133" s="64" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AN133" s="64">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AO133" s="64">
+        <v>1.8</v>
+      </c>
+      <c r="AP133" s="64">
+        <v>0.62</v>
+      </c>
+      <c r="AQ133" s="64">
+        <v>29</v>
+      </c>
+      <c r="AR133" s="64">
+        <v>329</v>
+      </c>
+      <c r="AS133" s="64">
+        <v>40</v>
+      </c>
+      <c r="AT133" s="64">
+        <v>524</v>
+      </c>
+      <c r="AU133" s="60"/>
+      <c r="AV133" s="60">
+        <v>1</v>
+      </c>
+      <c r="AW133" s="60"/>
+    </row>
+    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A134" s="65">
+        <v>6</v>
+      </c>
+      <c r="B134" s="66">
+        <v>44944.610069444447</v>
+      </c>
+      <c r="C134" s="66">
+        <v>44944.641134259262</v>
+      </c>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="68" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G134" s="67"/>
+      <c r="H134" s="64" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I134" s="64" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J134" s="64">
+        <v>0</v>
+      </c>
+      <c r="K134" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L134" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M134" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N134" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="O134" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="P134" s="64" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Q134" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R134" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S134" s="64" t="s">
+        <v>1082</v>
+      </c>
+      <c r="T134" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U134" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="V134" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="W134" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="X134" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y134" s="64"/>
+      <c r="Z134" s="64" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AA134" s="67"/>
+      <c r="AB134" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC134" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD134" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE134" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF134" s="64"/>
+      <c r="AG134" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH134" s="64" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AI134" s="64"/>
+      <c r="AJ134" s="64"/>
+      <c r="AK134" s="64"/>
+      <c r="AL134" s="64"/>
+      <c r="AM134" s="64"/>
+      <c r="AN134" s="64"/>
+      <c r="AO134" s="64"/>
+      <c r="AP134" s="64"/>
+      <c r="AQ134" s="64"/>
+      <c r="AR134" s="64"/>
+      <c r="AS134" s="64"/>
+      <c r="AT134" s="64"/>
+      <c r="AU134" s="60"/>
+      <c r="AV134" s="60"/>
+      <c r="AW134" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A135" s="65">
+        <v>7</v>
+      </c>
+      <c r="B135" s="66">
+        <v>44944.610162037039</v>
+      </c>
+      <c r="C135" s="66">
+        <v>44944.615289351852</v>
+      </c>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="68" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G135" s="67"/>
+      <c r="H135" s="64" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I135" s="69"/>
+      <c r="J135" s="64">
+        <v>0</v>
+      </c>
+      <c r="K135" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="L135" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="M135" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N135" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="O135" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="P135" s="64" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q135" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R135" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S135" s="64" t="s">
+        <v>1085</v>
+      </c>
+      <c r="T135" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="U135" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="V135" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="W135" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X135" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y135" s="64"/>
+      <c r="Z135" s="64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AA135" s="67"/>
+      <c r="AB135" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC135" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD135" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE135" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF135" s="64"/>
+      <c r="AG135" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH135" s="64" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AI135" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ135" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT135" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU135" s="60"/>
+      <c r="AV135" s="60"/>
+      <c r="AW135" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A136" s="65">
+        <v>8</v>
+      </c>
+      <c r="B136" s="66">
+        <v>44944.61550925926</v>
+      </c>
+      <c r="C136" s="66">
+        <v>44944.623344907406</v>
+      </c>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="68" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G136" s="67"/>
+      <c r="H136" s="64" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I136" s="69"/>
+      <c r="J136" s="64">
+        <v>0</v>
+      </c>
+      <c r="K136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="L136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="N136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="P136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="R136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="S136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="T136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="V136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="W136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="X136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y136" s="64"/>
+      <c r="Z136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA136" s="67"/>
+      <c r="AB136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC136" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF136" s="64"/>
+      <c r="AG136" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH136" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI136" s="64"/>
+      <c r="AJ136" s="64"/>
+      <c r="AK136" s="64"/>
+      <c r="AL136" s="64"/>
+      <c r="AM136" s="64"/>
+      <c r="AN136" s="64"/>
+      <c r="AO136" s="64"/>
+      <c r="AP136" s="64"/>
+      <c r="AQ136" s="64"/>
+      <c r="AR136" s="64"/>
+      <c r="AS136" s="64"/>
+      <c r="AT136" s="64"/>
+      <c r="AU136" s="60">
+        <v>1</v>
+      </c>
+      <c r="AV136" s="60"/>
+      <c r="AW136" s="60"/>
+    </row>
+    <row r="137" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A137" s="65">
+        <v>9</v>
+      </c>
+      <c r="B137" s="66">
+        <v>44944.624062499999</v>
+      </c>
+      <c r="C137" s="66">
+        <v>44944.627592592595</v>
+      </c>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="68" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G137" s="67"/>
+      <c r="H137" s="64" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I137" s="69"/>
+      <c r="J137" s="64">
+        <v>0</v>
+      </c>
+      <c r="K137" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L137" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M137" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N137" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="O137" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="P137" s="64" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q137" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R137" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S137" s="64" t="s">
+        <v>1090</v>
+      </c>
+      <c r="T137" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="U137" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="V137" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="W137" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X137" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y137" s="64"/>
+      <c r="Z137" s="64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AA137" s="67"/>
+      <c r="AB137" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC137" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD137" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE137" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF137" s="64"/>
+      <c r="AG137" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH137" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI137" s="64" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AJ137" s="64">
+        <v>-6.73</v>
+      </c>
+      <c r="AK137" s="64">
+        <v>-6.99</v>
+      </c>
+      <c r="AL137" s="64">
+        <v>0.26</v>
+      </c>
+      <c r="AM137" s="64" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AN137" s="64">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="AO137" s="64">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AP137" s="64">
+        <v>0.83</v>
+      </c>
+      <c r="AQ137" s="64">
+        <v>64</v>
+      </c>
+      <c r="AR137" s="64">
+        <v>329</v>
+      </c>
+      <c r="AS137" s="64">
+        <v>24</v>
+      </c>
+      <c r="AT137" s="64">
+        <v>167</v>
+      </c>
+      <c r="AU137" s="60"/>
+      <c r="AV137" s="60">
+        <v>1</v>
+      </c>
+      <c r="AW137" s="60"/>
+    </row>
+    <row r="138" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A138" s="65">
+        <v>10</v>
+      </c>
+      <c r="B138" s="66">
+        <v>44944.631585648145</v>
+      </c>
+      <c r="C138" s="66">
+        <v>44944.636944444443</v>
+      </c>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="68" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G138" s="67"/>
+      <c r="H138" s="64" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I138" s="69"/>
+      <c r="J138" s="64">
+        <v>0</v>
+      </c>
+      <c r="K138" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="L138" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="M138" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N138" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="O138" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P138" s="64" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q138" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="R138" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S138" s="64" t="s">
+        <v>1093</v>
+      </c>
+      <c r="T138" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="U138" s="64" t="s">
+        <v>1094</v>
+      </c>
+      <c r="V138" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="W138" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X138" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y138" s="64"/>
+      <c r="Z138" s="64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AA138" s="67"/>
+      <c r="AB138" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC138" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD138" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE138" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF138" s="64"/>
+      <c r="AG138" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH138" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI138" s="64" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AJ138" s="64">
+        <v>1.73</v>
+      </c>
+      <c r="AK138" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="AL138" s="64">
+        <v>0.18</v>
+      </c>
+      <c r="AM138" s="64" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AN138" s="64">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AO138" s="64">
+        <v>0.63</v>
+      </c>
+      <c r="AP138" s="64">
+        <v>0.45</v>
+      </c>
+      <c r="AQ138" s="64">
+        <v>24</v>
+      </c>
+      <c r="AR138" s="64">
+        <v>260</v>
+      </c>
+      <c r="AS138" s="64">
+        <v>13</v>
+      </c>
+      <c r="AT138" s="64">
+        <v>266</v>
+      </c>
+      <c r="AU138" s="60">
+        <v>1</v>
+      </c>
+      <c r="AV138" s="60"/>
+      <c r="AW138" s="60"/>
+    </row>
+    <row r="139" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="E139" s="61"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="62"/>
+      <c r="H139" s="63"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="62"/>
+      <c r="K139" s="62"/>
+      <c r="L139" s="62"/>
+      <c r="M139" s="62"/>
+      <c r="N139" s="62"/>
+      <c r="O139" s="62"/>
+      <c r="P139" s="62"/>
+      <c r="Q139" s="62"/>
+      <c r="R139" s="62"/>
+      <c r="S139" s="62"/>
+      <c r="T139" s="62"/>
+      <c r="U139" s="62"/>
+      <c r="V139" s="62"/>
+      <c r="W139" s="62"/>
+      <c r="X139" s="62"/>
+      <c r="Y139" s="62"/>
+      <c r="Z139" s="62"/>
+      <c r="AA139" s="62"/>
+      <c r="AB139" s="62"/>
+      <c r="AC139" s="62"/>
+      <c r="AD139" s="62"/>
+    </row>
+    <row r="140" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="E140" s="61"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="63"/>
+      <c r="I140" s="62"/>
+      <c r="J140" s="62"/>
+      <c r="K140" s="62"/>
+      <c r="L140" s="62"/>
+      <c r="M140" s="62"/>
+      <c r="N140" s="62"/>
+      <c r="O140" s="62"/>
+      <c r="P140" s="62"/>
+      <c r="Q140" s="62"/>
+      <c r="R140" s="62"/>
+      <c r="S140" s="62"/>
+      <c r="T140" s="62"/>
+      <c r="U140" s="62"/>
+      <c r="V140" s="62"/>
+      <c r="W140" s="62"/>
+      <c r="X140" s="62"/>
+      <c r="Y140" s="62"/>
+      <c r="Z140" s="62"/>
+      <c r="AA140" s="62"/>
+      <c r="AB140" s="62"/>
+      <c r="AC140" s="62"/>
+      <c r="AD140" s="62"/>
+    </row>
+    <row r="141" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="E141" s="61"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="63"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="62"/>
+      <c r="K141" s="62"/>
+      <c r="L141" s="62"/>
+      <c r="M141" s="62"/>
+      <c r="N141" s="62"/>
+      <c r="O141" s="62"/>
+      <c r="P141" s="62"/>
+      <c r="Q141" s="62"/>
+      <c r="R141" s="62"/>
+      <c r="S141" s="62"/>
+      <c r="T141" s="62"/>
+      <c r="U141" s="62"/>
+      <c r="V141" s="62"/>
+      <c r="W141" s="62"/>
+      <c r="X141" s="62"/>
+      <c r="Y141" s="62"/>
+      <c r="Z141" s="62"/>
+      <c r="AA141" s="62"/>
+      <c r="AB141" s="62"/>
+      <c r="AC141" s="62"/>
+      <c r="AD141" s="62"/>
+      <c r="AI141" s="62"/>
+      <c r="AJ141" s="62"/>
+      <c r="AK141" s="62"/>
+      <c r="AL141" s="62"/>
+      <c r="AM141" s="62"/>
+      <c r="AN141" s="62"/>
+      <c r="AO141" s="62"/>
+      <c r="AP141" s="62"/>
+      <c r="AQ141" s="62"/>
+      <c r="AR141" s="62"/>
+    </row>
+    <row r="142" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="E142" s="61"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="63"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="62"/>
+      <c r="K142" s="62"/>
+      <c r="L142" s="62"/>
+      <c r="M142" s="62"/>
+      <c r="N142" s="62"/>
+      <c r="O142" s="62"/>
+      <c r="P142" s="62"/>
+      <c r="Q142" s="62"/>
+      <c r="R142" s="62"/>
+      <c r="S142" s="62"/>
+      <c r="T142" s="62"/>
+      <c r="U142" s="62"/>
+      <c r="V142" s="62"/>
+      <c r="W142" s="62"/>
+      <c r="X142" s="62"/>
+      <c r="Y142" s="62"/>
+      <c r="Z142" s="62"/>
+      <c r="AA142" s="62"/>
+      <c r="AB142" s="62"/>
+      <c r="AC142" s="62"/>
+      <c r="AD142" s="62"/>
+      <c r="AI142" s="62"/>
+      <c r="AJ142" s="62"/>
+      <c r="AK142" s="62"/>
+      <c r="AL142" s="62"/>
+      <c r="AM142" s="62"/>
+      <c r="AN142" s="62"/>
+      <c r="AO142" s="62"/>
+      <c r="AP142" s="62"/>
+      <c r="AQ142" s="62"/>
+      <c r="AR142" s="62"/>
+    </row>
+    <row r="143" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="E143" s="61"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
+      <c r="H143" s="63"/>
+      <c r="I143" s="62"/>
+      <c r="J143" s="62"/>
+      <c r="K143" s="62"/>
+      <c r="L143" s="62"/>
+      <c r="M143" s="62"/>
+      <c r="N143" s="62"/>
+      <c r="O143" s="62"/>
+      <c r="P143" s="62"/>
+      <c r="Q143" s="62"/>
+      <c r="R143" s="62"/>
+      <c r="S143" s="62"/>
+      <c r="T143" s="62"/>
+      <c r="U143" s="62"/>
+      <c r="V143" s="62"/>
+      <c r="W143" s="62"/>
+      <c r="X143" s="62"/>
+      <c r="Y143" s="62"/>
+      <c r="Z143" s="62"/>
+      <c r="AA143" s="62"/>
+      <c r="AB143" s="62"/>
+      <c r="AC143" s="62"/>
+      <c r="AD143" s="62"/>
+      <c r="AI143" s="62"/>
+      <c r="AJ143" s="62"/>
+      <c r="AK143" s="62"/>
+      <c r="AL143" s="62"/>
+      <c r="AM143" s="62"/>
+      <c r="AN143" s="62"/>
+      <c r="AO143" s="62"/>
+      <c r="AP143" s="62"/>
+      <c r="AQ143" s="62"/>
+      <c r="AR143" s="62"/>
+    </row>
+    <row r="144" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="E144" s="61"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62"/>
+      <c r="I144" s="62"/>
+      <c r="J144" s="62"/>
+      <c r="K144" s="62"/>
+      <c r="L144" s="62"/>
+      <c r="M144" s="62"/>
+      <c r="N144" s="62"/>
+      <c r="O144" s="62"/>
+      <c r="P144" s="62"/>
+      <c r="Q144" s="62"/>
+      <c r="R144" s="62"/>
+      <c r="S144" s="62"/>
+      <c r="T144" s="62"/>
+      <c r="U144" s="62"/>
+      <c r="V144" s="62"/>
+      <c r="W144" s="62"/>
+      <c r="X144" s="62"/>
+      <c r="Y144" s="62"/>
+      <c r="Z144" s="62"/>
+      <c r="AA144" s="62"/>
+      <c r="AB144" s="62"/>
+      <c r="AC144" s="62"/>
+      <c r="AD144" s="62"/>
+      <c r="AI144" s="62"/>
+      <c r="AJ144" s="62"/>
+      <c r="AK144" s="62"/>
+      <c r="AL144" s="62"/>
+      <c r="AM144" s="62"/>
+      <c r="AN144" s="62"/>
+      <c r="AO144" s="62"/>
+      <c r="AP144" s="62"/>
+      <c r="AQ144" s="62"/>
+      <c r="AR144" s="62"/>
+    </row>
+    <row r="145" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E145" s="61"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="62"/>
+      <c r="J145" s="62"/>
+      <c r="K145" s="62"/>
+      <c r="L145" s="62"/>
+      <c r="M145" s="62"/>
+      <c r="N145" s="62"/>
+      <c r="O145" s="62"/>
+      <c r="P145" s="62"/>
+      <c r="Q145" s="62"/>
+      <c r="R145" s="62"/>
+      <c r="S145" s="62"/>
+      <c r="T145" s="62"/>
+      <c r="U145" s="62"/>
+      <c r="V145" s="62"/>
+      <c r="W145" s="62"/>
+      <c r="X145" s="62"/>
+      <c r="Y145" s="62"/>
+      <c r="Z145" s="62"/>
+      <c r="AA145" s="62"/>
+      <c r="AB145" s="62"/>
+      <c r="AC145" s="62"/>
+      <c r="AD145" s="62"/>
+      <c r="AI145" s="62"/>
+      <c r="AJ145" s="62"/>
+      <c r="AK145" s="62"/>
+      <c r="AL145" s="62"/>
+      <c r="AM145" s="62"/>
+      <c r="AN145" s="62"/>
+      <c r="AO145" s="62"/>
+      <c r="AP145" s="62"/>
+      <c r="AQ145" s="62"/>
+      <c r="AR145" s="62"/>
+    </row>
+    <row r="146" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E146" s="61"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="62"/>
+      <c r="K146" s="62"/>
+      <c r="L146" s="62"/>
+      <c r="M146" s="62"/>
+      <c r="N146" s="62"/>
+      <c r="O146" s="62"/>
+      <c r="P146" s="62"/>
+      <c r="Q146" s="62"/>
+      <c r="R146" s="62"/>
+      <c r="S146" s="62"/>
+      <c r="T146" s="62"/>
+      <c r="U146" s="62"/>
+      <c r="V146" s="62"/>
+      <c r="W146" s="62"/>
+      <c r="X146" s="62"/>
+      <c r="Y146" s="62"/>
+      <c r="Z146" s="62"/>
+      <c r="AA146" s="62"/>
+      <c r="AB146" s="62"/>
+      <c r="AC146" s="62"/>
+      <c r="AD146" s="62"/>
+      <c r="AI146" s="62"/>
+      <c r="AJ146" s="62"/>
+      <c r="AK146" s="62"/>
+      <c r="AL146" s="62"/>
+      <c r="AM146" s="62"/>
+      <c r="AN146" s="62"/>
+      <c r="AO146" s="62"/>
+      <c r="AP146" s="62"/>
+      <c r="AQ146" s="62"/>
+      <c r="AR146" s="62"/>
+    </row>
+    <row r="147" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E147" s="61"/>
+      <c r="F147" s="62"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="63"/>
+      <c r="I147" s="62"/>
+      <c r="J147" s="62"/>
+      <c r="K147" s="62"/>
+      <c r="L147" s="62"/>
+      <c r="M147" s="62"/>
+      <c r="N147" s="62"/>
+      <c r="O147" s="62"/>
+      <c r="P147" s="62"/>
+      <c r="Q147" s="62"/>
+      <c r="R147" s="62"/>
+      <c r="S147" s="62"/>
+      <c r="T147" s="62"/>
+      <c r="U147" s="62"/>
+      <c r="V147" s="62"/>
+      <c r="W147" s="62"/>
+      <c r="X147" s="62"/>
+      <c r="Y147" s="62"/>
+      <c r="Z147" s="62"/>
+      <c r="AA147" s="62"/>
+      <c r="AB147" s="62"/>
+      <c r="AC147" s="62"/>
+      <c r="AD147" s="62"/>
+      <c r="AI147" s="62"/>
+      <c r="AJ147" s="62"/>
+      <c r="AK147" s="62"/>
+      <c r="AL147" s="62"/>
+      <c r="AM147" s="62"/>
+      <c r="AN147" s="62"/>
+      <c r="AO147" s="62"/>
+      <c r="AP147" s="62"/>
+      <c r="AQ147" s="62"/>
+      <c r="AR147" s="62"/>
+    </row>
+    <row r="148" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E148" s="61"/>
+      <c r="F148" s="62"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="63"/>
+      <c r="I148" s="62"/>
+      <c r="J148" s="62"/>
+      <c r="K148" s="62"/>
+      <c r="L148" s="62"/>
+      <c r="M148" s="62"/>
+      <c r="N148" s="62"/>
+      <c r="O148" s="62"/>
+      <c r="P148" s="62"/>
+      <c r="Q148" s="62"/>
+      <c r="R148" s="62"/>
+      <c r="S148" s="62"/>
+      <c r="T148" s="62"/>
+      <c r="U148" s="62"/>
+      <c r="V148" s="62"/>
+      <c r="W148" s="62"/>
+      <c r="X148" s="62"/>
+      <c r="Y148" s="62"/>
+      <c r="Z148" s="62"/>
+      <c r="AA148" s="62"/>
+      <c r="AB148" s="62"/>
+      <c r="AC148" s="62"/>
+      <c r="AD148" s="62"/>
+      <c r="AI148" s="62"/>
+      <c r="AJ148" s="62"/>
+      <c r="AK148" s="62"/>
+      <c r="AL148" s="62"/>
+      <c r="AM148" s="62"/>
+      <c r="AN148" s="62"/>
+      <c r="AO148" s="62"/>
+      <c r="AP148" s="62"/>
+      <c r="AQ148" s="62"/>
+      <c r="AR148" s="62"/>
+    </row>
+    <row r="149" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E149" s="61"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="62"/>
+      <c r="J149" s="62"/>
+      <c r="K149" s="62"/>
+      <c r="L149" s="62"/>
+      <c r="M149" s="62"/>
+      <c r="N149" s="62"/>
+      <c r="O149" s="62"/>
+      <c r="P149" s="62"/>
+      <c r="Q149" s="62"/>
+      <c r="R149" s="62"/>
+      <c r="S149" s="62"/>
+      <c r="T149" s="62"/>
+      <c r="U149" s="62"/>
+      <c r="V149" s="62"/>
+      <c r="W149" s="62"/>
+      <c r="X149" s="62"/>
+      <c r="Y149" s="62"/>
+      <c r="Z149" s="62"/>
+      <c r="AA149" s="62"/>
+      <c r="AB149" s="62"/>
+      <c r="AC149" s="62"/>
+      <c r="AD149" s="62"/>
+      <c r="AI149" s="62"/>
+      <c r="AJ149" s="62"/>
+      <c r="AK149" s="62"/>
+      <c r="AL149" s="62"/>
+      <c r="AM149" s="62"/>
+      <c r="AN149" s="62"/>
+      <c r="AO149" s="62"/>
+      <c r="AP149" s="62"/>
+      <c r="AQ149" s="62"/>
+      <c r="AR149" s="62"/>
+    </row>
+    <row r="150" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E150" s="61"/>
+      <c r="F150" s="62"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="62"/>
+      <c r="J150" s="62"/>
+      <c r="K150" s="62"/>
+      <c r="L150" s="62"/>
+      <c r="M150" s="62"/>
+      <c r="N150" s="62"/>
+      <c r="O150" s="62"/>
+      <c r="P150" s="62"/>
+      <c r="Q150" s="62"/>
+      <c r="R150" s="62"/>
+      <c r="S150" s="62"/>
+      <c r="T150" s="62"/>
+      <c r="U150" s="62"/>
+      <c r="V150" s="62"/>
+      <c r="W150" s="62"/>
+      <c r="X150" s="62"/>
+      <c r="Y150" s="62"/>
+      <c r="Z150" s="62"/>
+      <c r="AA150" s="62"/>
+      <c r="AB150" s="62"/>
+      <c r="AC150" s="62"/>
+      <c r="AD150" s="62"/>
+      <c r="AI150" s="62"/>
+      <c r="AJ150" s="62"/>
+      <c r="AK150" s="62"/>
+      <c r="AL150" s="62"/>
+      <c r="AM150" s="62"/>
+      <c r="AN150" s="62"/>
+      <c r="AO150" s="62"/>
+      <c r="AP150" s="62"/>
+      <c r="AQ150" s="62"/>
+      <c r="AR150" s="62"/>
+    </row>
+    <row r="151" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E151" s="61"/>
+      <c r="F151" s="62"/>
+      <c r="G151" s="62"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="62"/>
+      <c r="J151" s="62"/>
+      <c r="K151" s="62"/>
+      <c r="L151" s="62"/>
+      <c r="M151" s="62"/>
+      <c r="N151" s="62"/>
+      <c r="O151" s="62"/>
+      <c r="P151" s="62"/>
+      <c r="Q151" s="62"/>
+      <c r="R151" s="62"/>
+      <c r="S151" s="62"/>
+      <c r="T151" s="62"/>
+      <c r="U151" s="62"/>
+      <c r="V151" s="62"/>
+      <c r="W151" s="62"/>
+      <c r="X151" s="62"/>
+      <c r="Y151" s="62"/>
+      <c r="Z151" s="62"/>
+      <c r="AA151" s="62"/>
+      <c r="AB151" s="62"/>
+      <c r="AC151" s="62"/>
+      <c r="AD151" s="62"/>
+      <c r="AI151" s="62"/>
+      <c r="AJ151" s="62"/>
+      <c r="AK151" s="62"/>
+      <c r="AL151" s="62"/>
+      <c r="AM151" s="62"/>
+      <c r="AN151" s="62"/>
+      <c r="AO151" s="62"/>
+      <c r="AP151" s="62"/>
+      <c r="AQ151" s="62"/>
+      <c r="AR151" s="62"/>
+    </row>
+    <row r="152" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E152" s="61"/>
+      <c r="F152" s="62"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="63"/>
+      <c r="I152" s="62"/>
+      <c r="J152" s="62"/>
+      <c r="K152" s="62"/>
+      <c r="L152" s="62"/>
+      <c r="M152" s="62"/>
+      <c r="N152" s="62"/>
+      <c r="O152" s="62"/>
+      <c r="P152" s="62"/>
+      <c r="Q152" s="62"/>
+      <c r="R152" s="62"/>
+      <c r="S152" s="62"/>
+      <c r="T152" s="62"/>
+      <c r="U152" s="62"/>
+      <c r="V152" s="62"/>
+      <c r="W152" s="62"/>
+      <c r="X152" s="62"/>
+      <c r="Y152" s="62"/>
+      <c r="Z152" s="62"/>
+      <c r="AA152" s="62"/>
+      <c r="AB152" s="62"/>
+      <c r="AC152" s="62"/>
+      <c r="AD152" s="62"/>
+      <c r="AI152" s="62"/>
+      <c r="AJ152" s="62"/>
+      <c r="AK152" s="62"/>
+      <c r="AL152" s="62"/>
+      <c r="AM152" s="62"/>
+      <c r="AN152" s="62"/>
+      <c r="AO152" s="62"/>
+      <c r="AP152" s="62"/>
+      <c r="AQ152" s="62"/>
+      <c r="AR152" s="62"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
     <filterColumn colId="21">
@@ -21632,8 +23619,11 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="F153:F1048576 F1:F138">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139:E152">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I26" r:id="rId1" xr:uid="{58C1A98B-2A57-6B4E-B60F-F2338B60F05C}"/>

--- a/puttogether.xlsx
+++ b/puttogether.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmoyer/Projects/Neurobypass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79332203-3399-4D46-8D7E-31604FFA0585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A02C7E4-9E2D-374B-8CA1-066D5B723A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="19040" windowHeight="20120" xr2:uid="{7E1E432B-6C34-F24C-9079-654A90130068}"/>
   </bookViews>
   <sheets>
     <sheet name="puttogether" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="R3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">puttogether!$A$1:$BC$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">puttogether!$A$1:$BC$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'R3'!$A$1:$AP$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4438,8 +4438,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z47" workbookViewId="0">
-      <selection activeCell="AG136" sqref="AG136"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4625,7 +4625,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="BB3"/>
     </row>
-    <row r="4" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="BB4"/>
     </row>
-    <row r="5" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="BA7"/>
       <c r="BB7"/>
     </row>
-    <row r="8" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="BA9"/>
       <c r="BB9"/>
     </row>
-    <row r="10" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="BA10"/>
       <c r="BB10"/>
     </row>
-    <row r="11" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="BA11"/>
       <c r="BB11"/>
     </row>
-    <row r="12" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="BA12"/>
       <c r="BB12"/>
     </row>
-    <row r="13" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="BB13"/>
     </row>
-    <row r="14" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="BB14"/>
     </row>
-    <row r="15" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6561,7 +6561,7 @@
       <c r="BA15"/>
       <c r="BB15"/>
     </row>
-    <row r="16" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="BA16"/>
       <c r="BB16"/>
     </row>
-    <row r="17" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="BA18"/>
       <c r="BB18"/>
     </row>
-    <row r="19" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="BB22"/>
     </row>
-    <row r="23" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="BB28"/>
     </row>
-    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>3</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>6</v>
       </c>
@@ -10768,7 +10768,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>18</v>
       </c>
@@ -12644,7 +12644,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>32</v>
       </c>
@@ -12783,7 +12783,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>33</v>
       </c>
@@ -12922,7 +12922,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>34</v>
       </c>
@@ -14536,7 +14536,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>46</v>
       </c>
@@ -15352,7 +15352,7 @@
       <c r="BB79"/>
       <c r="BC79"/>
     </row>
-    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>52</v>
       </c>
@@ -15735,7 +15735,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>1</v>
       </c>
@@ -15876,7 +15876,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>2</v>
       </c>
@@ -16017,7 +16017,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>3</v>
       </c>
@@ -16158,7 +16158,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>4</v>
       </c>
@@ -16301,7 +16301,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>5</v>
       </c>
@@ -16581,7 +16581,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <v>7</v>
       </c>
@@ -16722,7 +16722,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <v>8</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <v>9</v>
       </c>
@@ -17006,7 +17006,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>10</v>
       </c>
@@ -17149,7 +17149,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <v>11</v>
       </c>
@@ -17290,7 +17290,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <v>12</v>
       </c>
@@ -17427,7 +17427,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <v>13</v>
       </c>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="BC100"/>
     </row>
-    <row r="101" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <v>19</v>
       </c>
@@ -18935,7 +18935,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <v>25</v>
       </c>
@@ -19217,7 +19217,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <v>27</v>
       </c>
@@ -19503,7 +19503,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <v>29</v>
       </c>
@@ -19644,7 +19644,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <v>30</v>
       </c>
@@ -19787,7 +19787,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <v>31</v>
       </c>
@@ -20144,7 +20144,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <v>34</v>
       </c>
@@ -20712,7 +20712,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <v>38</v>
       </c>
@@ -21093,7 +21093,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <v>41</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:55" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
         <v>44</v>
       </c>
@@ -22484,7 +22484,7 @@
       </c>
       <c r="AW133" s="60"/>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="65">
         <v>6</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="65">
         <v>8</v>
       </c>
@@ -23606,12 +23606,7 @@
       <c r="AR152" s="62"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC128" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="Positive"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:BC138" xr:uid="{5EC13880-4650-DB48-9076-2AF3979E42A9}">
     <filterColumn colId="32">
       <filters>
         <filter val="Include"/>
